--- a/LuanTuTuc.xlsx
+++ b/LuanTuTuc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21147219-6D53-410D-8F41-D2F0C01A1284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6981E4D-C76D-4115-B6C0-1F630FAF03BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$G$1529</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$G$1527</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3060" uniqueCount="1697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3056" uniqueCount="1695">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -3723,9 +3723,6 @@
     <t>Đào Hoa, Hồng Loan, Văn Xương, Văn Khúc đồng cung tại Tử Tức</t>
   </si>
   <si>
-    <t>Thiên Tướng, Phục Binh đồng cung tại Tử Tức</t>
-  </si>
-  <si>
     <t>Bạch Hổ, Thất Sát, Kình Dương đồng cung tại Tử Tức</t>
   </si>
   <si>
@@ -4435,9 +4432,6 @@
   </si>
   <si>
     <t>Tam Thai, Tả Phù, Hữu Bật đồng cung tại Tử Tức</t>
-  </si>
-  <si>
-    <t>Phục Binh, Tướng Quân đồng cung tại Tử Tức</t>
   </si>
   <si>
     <t>Cự Môn, Thiên Cơ đồng cung tại Tử Tức</t>
@@ -5472,10 +5466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:G1529"/>
+  <dimension ref="A1:G1527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1086" workbookViewId="0">
-      <selection activeCell="A1104" sqref="A1104"/>
+    <sheetView tabSelected="1" topLeftCell="A1451" workbookViewId="0">
+      <selection activeCell="H1457" sqref="H1457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5489,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -5497,7 +5491,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -5505,7 +5499,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -5513,7 +5507,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -5521,7 +5515,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5529,7 +5523,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5537,7 +5531,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5993,7 +5987,7 @@
         <v>82</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -11417,10 +11411,10 @@
         <v>744</v>
       </c>
       <c r="B742" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C742" t="s">
         <v>1434</v>
-      </c>
-      <c r="C742" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
@@ -14068,7 +14062,7 @@
         <v>5</v>
       </c>
       <c r="B1073" s="1" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1074" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14076,7 +14070,7 @@
         <v>6</v>
       </c>
       <c r="B1074" s="1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1075" spans="1:2" x14ac:dyDescent="0.25">
@@ -14084,7 +14078,7 @@
         <v>7</v>
       </c>
       <c r="B1075" s="1" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1076" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14092,7 +14086,7 @@
         <v>8</v>
       </c>
       <c r="B1076" s="1" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.25">
@@ -14100,7 +14094,7 @@
         <v>9</v>
       </c>
       <c r="B1077" s="1" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.25">
@@ -14108,7 +14102,7 @@
         <v>10</v>
       </c>
       <c r="B1078" s="1" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="1079" spans="1:2" x14ac:dyDescent="0.25">
@@ -14116,7 +14110,7 @@
         <v>11</v>
       </c>
       <c r="B1079" s="1" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="1080" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -14124,7 +14118,7 @@
         <v>12</v>
       </c>
       <c r="B1080" s="1" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1081" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -14132,7 +14126,7 @@
         <v>13</v>
       </c>
       <c r="B1081" s="1" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1082" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -14140,7 +14134,7 @@
         <v>14</v>
       </c>
       <c r="B1082" s="1" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="1083" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14148,7 +14142,7 @@
         <v>15</v>
       </c>
       <c r="B1083" s="1" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1084" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -14156,7 +14150,7 @@
         <v>16</v>
       </c>
       <c r="B1084" s="1" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="1085" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -14164,7 +14158,7 @@
         <v>17</v>
       </c>
       <c r="B1085" s="1" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1086" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14172,7 +14166,7 @@
         <v>18</v>
       </c>
       <c r="B1086" s="1" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.25">
@@ -14188,7 +14182,7 @@
         <v>20</v>
       </c>
       <c r="B1088" s="1" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.25">
@@ -14209,10 +14203,10 @@
     </row>
     <row r="1091" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1091" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="B1091" s="1" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1092" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14220,7 +14214,7 @@
         <v>1077</v>
       </c>
       <c r="B1092" s="1" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1093" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14228,7 +14222,7 @@
         <v>1078</v>
       </c>
       <c r="B1093" s="1" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1094" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14236,7 +14230,7 @@
         <v>1079</v>
       </c>
       <c r="B1094" s="1" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="1095" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14244,7 +14238,7 @@
         <v>1080</v>
       </c>
       <c r="B1095" s="1" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="1096" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14252,7 +14246,7 @@
         <v>1081</v>
       </c>
       <c r="B1096" s="1" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="1097" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -14260,7 +14254,7 @@
         <v>1082</v>
       </c>
       <c r="B1097" s="1" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1098" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14268,7 +14262,7 @@
         <v>1083</v>
       </c>
       <c r="B1098" s="1" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="1099" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14276,7 +14270,7 @@
         <v>1084</v>
       </c>
       <c r="B1099" s="1" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1100" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -14284,7 +14278,7 @@
         <v>1085</v>
       </c>
       <c r="B1100" s="1" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="1101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14292,7 +14286,7 @@
         <v>1086</v>
       </c>
       <c r="B1101" s="1" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="1102" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -14300,7 +14294,7 @@
         <v>1087</v>
       </c>
       <c r="B1102" s="1" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="1103" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14308,7 +14302,7 @@
         <v>1088</v>
       </c>
       <c r="B1103" s="1" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="1104" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -14316,7 +14310,7 @@
         <v>1089</v>
       </c>
       <c r="B1104" s="1" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="1105" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -14324,7 +14318,7 @@
         <v>1090</v>
       </c>
       <c r="B1105" s="1" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="1106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14332,7 +14326,7 @@
         <v>1091</v>
       </c>
       <c r="B1106" s="1" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1107" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -14340,7 +14334,7 @@
         <v>1092</v>
       </c>
       <c r="B1107" s="1" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="1108" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -14348,7 +14342,7 @@
         <v>1093</v>
       </c>
       <c r="B1108" s="1" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.25">
@@ -14356,7 +14350,7 @@
         <v>1094</v>
       </c>
       <c r="B1109" s="1" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1110" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -14364,7 +14358,7 @@
         <v>1095</v>
       </c>
       <c r="B1110" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="1111" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -14372,7 +14366,7 @@
         <v>1096</v>
       </c>
       <c r="B1111" s="1" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="1112" spans="1:2" x14ac:dyDescent="0.25">
@@ -14380,7 +14374,7 @@
         <v>1097</v>
       </c>
       <c r="B1112" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="1113" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -14388,7 +14382,7 @@
         <v>1098</v>
       </c>
       <c r="B1113" s="1" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="1114" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -14396,7 +14390,7 @@
         <v>1099</v>
       </c>
       <c r="B1114" s="1" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="1115" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -14404,7 +14398,7 @@
         <v>1100</v>
       </c>
       <c r="B1115" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1116" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -14412,7 +14406,7 @@
         <v>1101</v>
       </c>
       <c r="B1116" s="1" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="1117" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14420,7 +14414,7 @@
         <v>1102</v>
       </c>
       <c r="B1117" s="1" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1118" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14428,7 +14422,7 @@
         <v>1103</v>
       </c>
       <c r="B1118" s="1" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="1119" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -14436,7 +14430,7 @@
         <v>1104</v>
       </c>
       <c r="B1119" s="1" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="1120" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -14444,7 +14438,7 @@
         <v>1105</v>
       </c>
       <c r="B1120" s="1" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="1121" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -14452,7 +14446,7 @@
         <v>1107</v>
       </c>
       <c r="B1121" s="1" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1122" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -14460,7 +14454,7 @@
         <v>1106</v>
       </c>
       <c r="B1122" s="1" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1123" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14468,7 +14462,7 @@
         <v>1108</v>
       </c>
       <c r="B1123" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="1124" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14476,7 +14470,7 @@
         <v>1109</v>
       </c>
       <c r="B1124" s="1" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="1125" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -14484,7 +14478,7 @@
         <v>1110</v>
       </c>
       <c r="B1125" s="1" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="1126" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -14492,7 +14486,7 @@
         <v>1111</v>
       </c>
       <c r="B1126" s="1" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="1127" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -14500,7 +14494,7 @@
         <v>1112</v>
       </c>
       <c r="B1127" s="1" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -14508,7 +14502,7 @@
         <v>1113</v>
       </c>
       <c r="B1128" s="1" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="1129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14516,7 +14510,7 @@
         <v>1114</v>
       </c>
       <c r="B1129" s="1" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.25">
@@ -14524,7 +14518,7 @@
         <v>1115</v>
       </c>
       <c r="B1130" s="1" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="1131" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14532,7 +14526,7 @@
         <v>1219</v>
       </c>
       <c r="B1131" s="1" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14540,7 +14534,7 @@
         <v>1220</v>
       </c>
       <c r="B1132" s="1" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1133" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -14548,7 +14542,7 @@
         <v>1118</v>
       </c>
       <c r="B1133" s="1" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="1134" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14556,7 +14550,7 @@
         <v>1117</v>
       </c>
       <c r="B1134" s="1" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.25">
@@ -14564,7 +14558,7 @@
         <v>1221</v>
       </c>
       <c r="B1135" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1136" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -14572,7 +14566,7 @@
         <v>1222</v>
       </c>
       <c r="B1136" s="1" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1137" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -14580,7 +14574,7 @@
         <v>1223</v>
       </c>
       <c r="B1137" s="1" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.25">
@@ -14588,7 +14582,7 @@
         <v>1224</v>
       </c>
       <c r="B1138" s="1" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1139" spans="1:2" x14ac:dyDescent="0.25">
@@ -14596,7 +14590,7 @@
         <v>1225</v>
       </c>
       <c r="B1139" s="1" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1140" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -14604,7 +14598,7 @@
         <v>1226</v>
       </c>
       <c r="B1140" s="1" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1141" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14612,7 +14606,7 @@
         <v>1227</v>
       </c>
       <c r="B1141" s="1" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1142" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14620,7 +14614,7 @@
         <v>1116</v>
       </c>
       <c r="B1142" s="1" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1143" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14628,7 +14622,7 @@
         <v>1228</v>
       </c>
       <c r="B1143" s="1" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.25">
@@ -14636,7 +14630,7 @@
         <v>1119</v>
       </c>
       <c r="B1144" s="1" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.25">
@@ -14644,7 +14638,7 @@
         <v>1120</v>
       </c>
       <c r="B1145" s="1" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1146" spans="1:2" x14ac:dyDescent="0.25">
@@ -14652,7 +14646,7 @@
         <v>1121</v>
       </c>
       <c r="B1146" s="1" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.25">
@@ -14660,7 +14654,7 @@
         <v>1122</v>
       </c>
       <c r="B1147" s="1" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.25">
@@ -14668,7 +14662,7 @@
         <v>1123</v>
       </c>
       <c r="B1148" s="1" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1149" spans="1:2" x14ac:dyDescent="0.25">
@@ -14676,7 +14670,7 @@
         <v>1124</v>
       </c>
       <c r="B1149" s="1" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.25">
@@ -14684,7 +14678,7 @@
         <v>1125</v>
       </c>
       <c r="B1150" s="1" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1151" spans="1:2" x14ac:dyDescent="0.25">
@@ -14692,7 +14686,7 @@
         <v>1126</v>
       </c>
       <c r="B1151" s="1" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.25">
@@ -14700,7 +14694,7 @@
         <v>1127</v>
       </c>
       <c r="B1152" s="1" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1153" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14708,7 +14702,7 @@
         <v>1128</v>
       </c>
       <c r="B1153" s="1" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1154" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14716,7 +14710,7 @@
         <v>1129</v>
       </c>
       <c r="B1154" s="1" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1155" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14724,7 +14718,7 @@
         <v>1130</v>
       </c>
       <c r="B1155" s="1" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.25">
@@ -14732,7 +14726,7 @@
         <v>1131</v>
       </c>
       <c r="B1156" s="1" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.25">
@@ -14740,7 +14734,7 @@
         <v>1132</v>
       </c>
       <c r="B1157" s="1" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.25">
@@ -14748,7 +14742,7 @@
         <v>1133</v>
       </c>
       <c r="B1158" s="1" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.25">
@@ -14756,7 +14750,7 @@
         <v>1134</v>
       </c>
       <c r="B1159" s="1" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.25">
@@ -14764,7 +14758,7 @@
         <v>1135</v>
       </c>
       <c r="B1160" s="1" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.25">
@@ -14772,7 +14766,7 @@
         <v>1136</v>
       </c>
       <c r="B1161" s="1" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1162" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -14780,7 +14774,7 @@
         <v>1137</v>
       </c>
       <c r="B1162" s="1" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.25">
@@ -14788,7 +14782,7 @@
         <v>1138</v>
       </c>
       <c r="B1163" s="1" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.25">
@@ -14796,7 +14790,7 @@
         <v>1139</v>
       </c>
       <c r="B1164" s="1" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1165" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -14804,7 +14798,7 @@
         <v>1140</v>
       </c>
       <c r="B1165" s="1" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.25">
@@ -14812,7 +14806,7 @@
         <v>1141</v>
       </c>
       <c r="B1166" s="1" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.25">
@@ -14820,7 +14814,7 @@
         <v>1142</v>
       </c>
       <c r="B1167" s="1" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.25">
@@ -14828,7 +14822,7 @@
         <v>1143</v>
       </c>
       <c r="B1168" s="1" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1169" spans="1:2" x14ac:dyDescent="0.25">
@@ -14836,7 +14830,7 @@
         <v>1144</v>
       </c>
       <c r="B1169" s="1" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.25">
@@ -14844,7 +14838,7 @@
         <v>1145</v>
       </c>
       <c r="B1170" s="1" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.25">
@@ -14852,7 +14846,7 @@
         <v>1146</v>
       </c>
       <c r="B1171" s="1" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.25">
@@ -14860,7 +14854,7 @@
         <v>1147</v>
       </c>
       <c r="B1172" s="1" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1173" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14868,7 +14862,7 @@
         <v>1148</v>
       </c>
       <c r="B1173" s="1" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1174" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14876,7 +14870,7 @@
         <v>1149</v>
       </c>
       <c r="B1174" s="1" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1175" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14884,7 +14878,7 @@
         <v>1150</v>
       </c>
       <c r="B1175" s="1" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1176" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14892,7 +14886,7 @@
         <v>1151</v>
       </c>
       <c r="B1176" s="1" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1177" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14900,7 +14894,7 @@
         <v>1152</v>
       </c>
       <c r="B1177" s="1" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1178" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14908,7 +14902,7 @@
         <v>1153</v>
       </c>
       <c r="B1178" s="1" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1179" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14916,7 +14910,7 @@
         <v>1154</v>
       </c>
       <c r="B1179" s="1" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1180" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14924,7 +14918,7 @@
         <v>1155</v>
       </c>
       <c r="B1180" s="1" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="1181" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14932,7 +14926,7 @@
         <v>1156</v>
       </c>
       <c r="B1181" s="1" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1182" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14940,7 +14934,7 @@
         <v>1157</v>
       </c>
       <c r="B1182" s="1" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1183" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14948,7 +14942,7 @@
         <v>1158</v>
       </c>
       <c r="B1183" s="1" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="1184" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14956,7 +14950,7 @@
         <v>1159</v>
       </c>
       <c r="B1184" s="1" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.25">
@@ -14964,7 +14958,7 @@
         <v>1160</v>
       </c>
       <c r="B1185" s="1" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1186" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -14972,7 +14966,7 @@
         <v>1161</v>
       </c>
       <c r="B1186" s="1" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="1187" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14980,7 +14974,7 @@
         <v>1162</v>
       </c>
       <c r="B1187" s="1" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.25">
@@ -14988,7 +14982,7 @@
         <v>1163</v>
       </c>
       <c r="B1188" s="1" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1189" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -14996,7 +14990,7 @@
         <v>1164</v>
       </c>
       <c r="B1189" s="1" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.25">
@@ -15004,7 +14998,7 @@
         <v>1165</v>
       </c>
       <c r="B1190" s="1" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.25">
@@ -15012,7 +15006,7 @@
         <v>1166</v>
       </c>
       <c r="B1191" s="1" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1192" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15020,7 +15014,7 @@
         <v>1167</v>
       </c>
       <c r="B1192" s="1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.25">
@@ -15028,7 +15022,7 @@
         <v>1168</v>
       </c>
       <c r="B1193" s="1" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.25">
@@ -15036,7 +15030,7 @@
         <v>1169</v>
       </c>
       <c r="B1194" s="1" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.25">
@@ -15044,7 +15038,7 @@
         <v>1170</v>
       </c>
       <c r="B1195" s="1" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.25">
@@ -15052,7 +15046,7 @@
         <v>1171</v>
       </c>
       <c r="B1196" s="1" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.25">
@@ -15060,7 +15054,7 @@
         <v>1172</v>
       </c>
       <c r="B1197" s="1" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1198" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15068,7 +15062,7 @@
         <v>1173</v>
       </c>
       <c r="B1198" s="1" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.25">
@@ -15076,7 +15070,7 @@
         <v>1174</v>
       </c>
       <c r="B1199" s="1" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.25">
@@ -15084,7 +15078,7 @@
         <v>1175</v>
       </c>
       <c r="B1200" s="1" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1201" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15092,7 +15086,7 @@
         <v>1176</v>
       </c>
       <c r="B1201" s="1" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.25">
@@ -15100,7 +15094,7 @@
         <v>1177</v>
       </c>
       <c r="B1202" s="1" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1203" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15108,7 +15102,7 @@
         <v>1178</v>
       </c>
       <c r="B1203" s="1" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1204" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15116,7 +15110,7 @@
         <v>1179</v>
       </c>
       <c r="B1204" s="1" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.25">
@@ -15124,7 +15118,7 @@
         <v>1180</v>
       </c>
       <c r="B1205" s="1" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1206" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15132,7 +15126,7 @@
         <v>1181</v>
       </c>
       <c r="B1206" s="1" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1207" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15140,7 +15134,7 @@
         <v>1182</v>
       </c>
       <c r="B1207" s="1" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1208" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15148,7 +15142,7 @@
         <v>1183</v>
       </c>
       <c r="B1208" s="1" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1209" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15156,7 +15150,7 @@
         <v>1184</v>
       </c>
       <c r="B1209" s="1" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1210" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15164,7 +15158,7 @@
         <v>1185</v>
       </c>
       <c r="B1210" s="1" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1211" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15172,7 +15166,7 @@
         <v>1186</v>
       </c>
       <c r="B1211" s="1" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1212" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15180,7 +15174,7 @@
         <v>1187</v>
       </c>
       <c r="B1212" s="1" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1213" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15188,7 +15182,7 @@
         <v>1188</v>
       </c>
       <c r="B1213" s="1" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.25">
@@ -15196,7 +15190,7 @@
         <v>1189</v>
       </c>
       <c r="B1214" s="1" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1215" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15204,7 +15198,7 @@
         <v>1190</v>
       </c>
       <c r="B1215" s="1" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1216" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15212,7 +15206,7 @@
         <v>1191</v>
       </c>
       <c r="B1216" s="1" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1217" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15220,7 +15214,7 @@
         <v>1192</v>
       </c>
       <c r="B1217" s="1" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.25">
@@ -15228,7 +15222,7 @@
         <v>1193</v>
       </c>
       <c r="B1218" s="1" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.25">
@@ -15236,7 +15230,7 @@
         <v>1194</v>
       </c>
       <c r="B1219" s="1" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.25">
@@ -15244,7 +15238,7 @@
         <v>1195</v>
       </c>
       <c r="B1220" s="1" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1221" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15252,7 +15246,7 @@
         <v>1196</v>
       </c>
       <c r="B1221" s="1" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.25">
@@ -15260,7 +15254,7 @@
         <v>1197</v>
       </c>
       <c r="B1222" s="1" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1223" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15268,7 +15262,7 @@
         <v>1198</v>
       </c>
       <c r="B1223" s="1" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1224" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15276,7 +15270,7 @@
         <v>1199</v>
       </c>
       <c r="B1224" s="1" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1225" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15284,7 +15278,7 @@
         <v>1200</v>
       </c>
       <c r="B1225" s="1" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1226" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15292,7 +15286,7 @@
         <v>1201</v>
       </c>
       <c r="B1226" s="1" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.25">
@@ -15300,7 +15294,7 @@
         <v>1202</v>
       </c>
       <c r="B1227" s="1" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.25">
@@ -15308,7 +15302,7 @@
         <v>1203</v>
       </c>
       <c r="B1228" s="1" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.25">
@@ -15316,7 +15310,7 @@
         <v>1209</v>
       </c>
       <c r="B1229" s="1" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.25">
@@ -15324,7 +15318,7 @@
         <v>1210</v>
       </c>
       <c r="B1230" s="1" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1231" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15332,7 +15326,7 @@
         <v>1211</v>
       </c>
       <c r="B1231" s="1" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="1232" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15340,7 +15334,7 @@
         <v>1212</v>
       </c>
       <c r="B1232" s="1" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.25">
@@ -15348,7 +15342,7 @@
         <v>1213</v>
       </c>
       <c r="B1233" s="1" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.25">
@@ -15356,7 +15350,7 @@
         <v>1214</v>
       </c>
       <c r="B1234" s="1" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1235" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15364,7 +15358,7 @@
         <v>1215</v>
       </c>
       <c r="B1235" s="1" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1236" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15372,7 +15366,7 @@
         <v>1216</v>
       </c>
       <c r="B1236" s="1" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1237" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15380,7 +15374,7 @@
         <v>1217</v>
       </c>
       <c r="B1237" s="1" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.25">
@@ -15423,7 +15417,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="1243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1243" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1243" s="1" t="s">
         <v>1233</v>
       </c>
@@ -15431,7 +15425,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="1244" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1244" s="1" t="s">
         <v>1234</v>
       </c>
@@ -15676,7 +15670,7 @@
         <v>1264</v>
       </c>
       <c r="B1274" s="1" t="s">
-        <v>1264</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.25">
@@ -15684,7 +15678,7 @@
         <v>1265</v>
       </c>
       <c r="B1275" s="1" t="s">
-        <v>1497</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.25">
@@ -16007,28 +16001,28 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="1316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1316" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1316" s="1" t="s">
         <v>1306</v>
       </c>
       <c r="B1316" s="1" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="1317" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1317" s="1" t="s">
         <v>1307</v>
       </c>
       <c r="B1317" s="1" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="1318" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1318" s="1" t="s">
         <v>1308</v>
       </c>
       <c r="B1318" s="1" t="s">
-        <v>1611</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.25">
@@ -16039,20 +16033,20 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="1320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1320" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1320" s="1" t="s">
         <v>1310</v>
       </c>
       <c r="B1320" s="1" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="1321" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1321" s="1" t="s">
         <v>1311</v>
       </c>
       <c r="B1321" s="1" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.25">
@@ -16060,7 +16054,7 @@
         <v>1312</v>
       </c>
       <c r="B1322" s="1" t="s">
-        <v>1603</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.25">
@@ -16071,20 +16065,20 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="1324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1324" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1324" s="1" t="s">
         <v>1314</v>
       </c>
       <c r="B1324" s="1" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="1325" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1325" s="1" t="s">
         <v>1315</v>
       </c>
       <c r="B1325" s="1" t="s">
-        <v>1604</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.25">
@@ -16092,15 +16086,15 @@
         <v>1316</v>
       </c>
       <c r="B1326" s="1" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="1327" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1327" s="1" t="s">
         <v>1317</v>
       </c>
       <c r="B1327" s="1" t="s">
-        <v>1317</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1328" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16108,15 +16102,15 @@
         <v>1318</v>
       </c>
       <c r="B1328" s="1" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="1329" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1329" s="1" t="s">
         <v>1319</v>
       </c>
       <c r="B1329" s="1" t="s">
-        <v>1606</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.25">
@@ -16148,7 +16142,7 @@
         <v>1323</v>
       </c>
       <c r="B1333" s="1" t="s">
-        <v>1323</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.25">
@@ -16156,7 +16150,7 @@
         <v>1324</v>
       </c>
       <c r="B1334" s="1" t="s">
-        <v>1603</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.25">
@@ -16183,12 +16177,12 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="1338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1338" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1338" s="1" t="s">
         <v>1328</v>
       </c>
       <c r="B1338" s="1" t="s">
-        <v>1328</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1339" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16196,15 +16190,15 @@
         <v>1329</v>
       </c>
       <c r="B1339" s="1" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="1340" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1340" s="1" t="s">
         <v>1330</v>
       </c>
       <c r="B1340" s="1" t="s">
-        <v>1608</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.25">
@@ -16231,20 +16225,20 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="1344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1344" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1344" s="1" t="s">
         <v>1334</v>
       </c>
       <c r="B1344" s="1" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="1345" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1345" s="1" t="s">
         <v>1335</v>
       </c>
       <c r="B1345" s="1" t="s">
-        <v>1609</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.25">
@@ -16316,15 +16310,15 @@
         <v>1344</v>
       </c>
       <c r="B1354" s="1" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="1355" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1355" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="B1355" s="1" t="s">
-        <v>1529</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1356" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16332,15 +16326,15 @@
         <v>1346</v>
       </c>
       <c r="B1356" s="1" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="1357" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1357" s="1" t="s">
         <v>1347</v>
       </c>
       <c r="B1357" s="1" t="s">
-        <v>1525</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.25">
@@ -16348,7 +16342,7 @@
         <v>1348</v>
       </c>
       <c r="B1358" s="1" t="s">
-        <v>1348</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.25">
@@ -16356,7 +16350,7 @@
         <v>1349</v>
       </c>
       <c r="B1359" s="1" t="s">
-        <v>1527</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.25">
@@ -16391,7 +16385,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="1364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1364" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1364" s="1" t="s">
         <v>1354</v>
       </c>
@@ -16399,7 +16393,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="1365" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1365" s="1" t="s">
         <v>1355</v>
       </c>
@@ -16423,7 +16417,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="1368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1368" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1368" s="1" t="s">
         <v>1358</v>
       </c>
@@ -16431,7 +16425,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="1369" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1369" s="1" t="s">
         <v>1359</v>
       </c>
@@ -16556,7 +16550,7 @@
         <v>1374</v>
       </c>
       <c r="B1384" s="1" t="s">
-        <v>1374</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="1385" spans="1:2" x14ac:dyDescent="0.25">
@@ -16564,7 +16558,7 @@
         <v>1375</v>
       </c>
       <c r="B1385" s="1" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.25">
@@ -16572,7 +16566,7 @@
         <v>1376</v>
       </c>
       <c r="B1386" s="1" t="s">
-        <v>1496</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1387" spans="1:2" x14ac:dyDescent="0.25">
@@ -16580,7 +16574,7 @@
         <v>1377</v>
       </c>
       <c r="B1387" s="1" t="s">
-        <v>1696</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.25">
@@ -16588,23 +16582,23 @@
         <v>1378</v>
       </c>
       <c r="B1388" s="1" t="s">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="1389" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1389" s="1" t="s">
         <v>1379</v>
       </c>
       <c r="B1389" s="1" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="1390" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1390" s="1" t="s">
         <v>1380</v>
       </c>
       <c r="B1390" s="1" t="s">
-        <v>1505</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.25">
@@ -16676,7 +16670,7 @@
         <v>1389</v>
       </c>
       <c r="B1399" s="1" t="s">
-        <v>1389</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.25">
@@ -16684,7 +16678,7 @@
         <v>1390</v>
       </c>
       <c r="B1400" s="1" t="s">
-        <v>1548</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.25">
@@ -16708,7 +16702,7 @@
         <v>1393</v>
       </c>
       <c r="B1403" s="1" t="s">
-        <v>1393</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.25">
@@ -16716,7 +16710,7 @@
         <v>1394</v>
       </c>
       <c r="B1404" s="1" t="s">
-        <v>1508</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1405" spans="1:2" x14ac:dyDescent="0.25">
@@ -16751,7 +16745,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="1409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1409" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1409" s="1" t="s">
         <v>1399</v>
       </c>
@@ -16759,7 +16753,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1410" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1410" s="1" t="s">
         <v>1400</v>
       </c>
@@ -16812,7 +16806,7 @@
         <v>1406</v>
       </c>
       <c r="B1416" s="1" t="s">
-        <v>1406</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.25">
@@ -16820,7 +16814,7 @@
         <v>1407</v>
       </c>
       <c r="B1417" s="1" t="s">
-        <v>1507</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.25">
@@ -16881,10 +16875,10 @@
     </row>
     <row r="1425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1425" s="1" t="s">
-        <v>1415</v>
+        <v>1430</v>
       </c>
       <c r="B1425" s="1" t="s">
-        <v>1415</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1426" spans="1:2" x14ac:dyDescent="0.25">
@@ -16892,15 +16886,15 @@
         <v>1431</v>
       </c>
       <c r="B1426" s="1" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1427" s="1" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="B1427" s="1" t="s">
-        <v>1433</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1428" spans="1:2" x14ac:dyDescent="0.25">
@@ -16908,7 +16902,7 @@
         <v>1436</v>
       </c>
       <c r="B1428" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1429" spans="1:2" x14ac:dyDescent="0.25">
@@ -16916,7 +16910,7 @@
         <v>1437</v>
       </c>
       <c r="B1429" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1430" spans="1:2" x14ac:dyDescent="0.25">
@@ -16924,7 +16918,7 @@
         <v>1438</v>
       </c>
       <c r="B1430" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.25">
@@ -16932,7 +16926,7 @@
         <v>1439</v>
       </c>
       <c r="B1431" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1432" spans="1:2" x14ac:dyDescent="0.25">
@@ -16940,7 +16934,7 @@
         <v>1440</v>
       </c>
       <c r="B1432" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1433" spans="1:2" x14ac:dyDescent="0.25">
@@ -16948,15 +16942,15 @@
         <v>1441</v>
       </c>
       <c r="B1433" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1434" s="1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B1434" s="1" t="s">
-        <v>1443</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1435" spans="1:2" x14ac:dyDescent="0.25">
@@ -16964,7 +16958,7 @@
         <v>1444</v>
       </c>
       <c r="B1435" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1436" spans="1:2" x14ac:dyDescent="0.25">
@@ -16972,7 +16966,7 @@
         <v>1445</v>
       </c>
       <c r="B1436" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1437" spans="1:2" x14ac:dyDescent="0.25">
@@ -16980,7 +16974,7 @@
         <v>1446</v>
       </c>
       <c r="B1437" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.25">
@@ -16988,7 +16982,7 @@
         <v>1447</v>
       </c>
       <c r="B1438" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1439" spans="1:2" x14ac:dyDescent="0.25">
@@ -16996,15 +16990,15 @@
         <v>1448</v>
       </c>
       <c r="B1439" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1440" s="1" t="s">
-        <v>1449</v>
+        <v>1677</v>
       </c>
       <c r="B1440" s="1" t="s">
-        <v>1450</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1441" spans="1:2" x14ac:dyDescent="0.25">
@@ -17023,7 +17017,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="1443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1443" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1443" s="1" t="s">
         <v>1683</v>
       </c>
@@ -17036,31 +17030,31 @@
         <v>1685</v>
       </c>
       <c r="B1444" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="1445" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1445" s="1" t="s">
-        <v>1687</v>
+        <v>1204</v>
       </c>
       <c r="B1445" s="1" t="s">
-        <v>1689</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1446" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1446" s="1" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B1446" s="1" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="1447" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1447" s="1" t="s">
-        <v>1205</v>
+        <v>1649</v>
       </c>
       <c r="B1447" s="1" t="s">
-        <v>1632</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.25">
@@ -17068,31 +17062,31 @@
         <v>1651</v>
       </c>
       <c r="B1448" s="1" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="1449" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1449" s="1" t="s">
-        <v>1653</v>
+        <v>1686</v>
       </c>
       <c r="B1449" s="1" t="s">
-        <v>1652</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="1450" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1450" s="1" t="s">
-        <v>1688</v>
+        <v>1206</v>
       </c>
       <c r="B1450" s="1" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="1451" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1451" s="1" t="s">
-        <v>1206</v>
+        <v>1451</v>
       </c>
       <c r="B1451" s="1" t="s">
-        <v>1632</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.25">
@@ -17100,7 +17094,7 @@
         <v>1452</v>
       </c>
       <c r="B1452" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.25">
@@ -17108,39 +17102,39 @@
         <v>1453</v>
       </c>
       <c r="B1453" s="1" t="s">
-        <v>1450</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1454" s="1" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="B1454" s="1" t="s">
-        <v>1618</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1455" s="1" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="B1455" s="1" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="1456" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1456" s="1" t="s">
         <v>1455</v>
       </c>
       <c r="B1456" s="1" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="1457" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1457" s="1" t="s">
         <v>1456</v>
       </c>
       <c r="B1457" s="1" t="s">
-        <v>1617</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1458" spans="1:3" x14ac:dyDescent="0.25">
@@ -17148,7 +17142,7 @@
         <v>1457</v>
       </c>
       <c r="B1458" s="1" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1459" spans="1:3" x14ac:dyDescent="0.25">
@@ -17156,23 +17150,23 @@
         <v>1458</v>
       </c>
       <c r="B1459" s="1" t="s">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="1460" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1460" s="1" t="s">
         <v>1459</v>
       </c>
       <c r="B1460" s="1" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="1461" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1461" s="1" t="s">
         <v>1460</v>
       </c>
       <c r="B1461" s="1" t="s">
-        <v>1616</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1462" spans="1:3" x14ac:dyDescent="0.25">
@@ -17180,7 +17174,7 @@
         <v>1461</v>
       </c>
       <c r="B1462" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1463" spans="1:3" x14ac:dyDescent="0.25">
@@ -17188,7 +17182,7 @@
         <v>1462</v>
       </c>
       <c r="B1463" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1464" spans="1:3" x14ac:dyDescent="0.25">
@@ -17196,7 +17190,7 @@
         <v>1463</v>
       </c>
       <c r="B1464" s="1" t="s">
-        <v>1443</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1465" spans="1:3" x14ac:dyDescent="0.25">
@@ -17209,10 +17203,13 @@
     </row>
     <row r="1466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1466" s="1" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="B1466" s="1" t="s">
-        <v>1467</v>
+        <v>1504</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>1475</v>
       </c>
     </row>
     <row r="1467" spans="1:3" x14ac:dyDescent="0.25">
@@ -17220,10 +17217,7 @@
         <v>1468</v>
       </c>
       <c r="B1467" s="1" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C1467" t="s">
-        <v>1477</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1468" spans="1:3" x14ac:dyDescent="0.25">
@@ -17231,12 +17225,12 @@
         <v>1469</v>
       </c>
       <c r="B1468" s="1" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1469" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B1469" s="1" t="s">
         <v>1472</v>
@@ -17244,26 +17238,26 @@
     </row>
     <row r="1470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1470" s="1" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="B1470" s="1" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1471" s="1" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="B1471" s="1" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1472" s="1" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B1472" s="1" t="s">
-        <v>1477</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1473" spans="1:2" x14ac:dyDescent="0.25">
@@ -17271,7 +17265,7 @@
         <v>1478</v>
       </c>
       <c r="B1473" s="1" t="s">
-        <v>1477</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1474" spans="1:2" x14ac:dyDescent="0.25">
@@ -17279,7 +17273,7 @@
         <v>1479</v>
       </c>
       <c r="B1474" s="1" t="s">
-        <v>1450</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1475" spans="1:2" x14ac:dyDescent="0.25">
@@ -17287,7 +17281,7 @@
         <v>1480</v>
       </c>
       <c r="B1475" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1476" spans="1:2" x14ac:dyDescent="0.25">
@@ -17295,15 +17289,15 @@
         <v>1481</v>
       </c>
       <c r="B1476" s="1" t="s">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="1477" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1477" s="1" t="s">
         <v>1482</v>
       </c>
       <c r="B1477" s="1" t="s">
-        <v>1450</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1478" spans="1:2" x14ac:dyDescent="0.25">
@@ -17311,15 +17305,15 @@
         <v>1483</v>
       </c>
       <c r="B1478" s="1" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="1479" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1479" s="1" t="s">
         <v>1484</v>
       </c>
       <c r="B1479" s="1" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1480" spans="1:2" x14ac:dyDescent="0.25">
@@ -17327,15 +17321,15 @@
         <v>1485</v>
       </c>
       <c r="B1480" s="1" t="s">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="1481" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1481" s="1" t="s">
         <v>1486</v>
       </c>
       <c r="B1481" s="1" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1482" spans="1:2" x14ac:dyDescent="0.25">
@@ -17343,15 +17337,15 @@
         <v>1487</v>
       </c>
       <c r="B1482" s="1" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="1483" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1483" s="1" t="s">
         <v>1488</v>
       </c>
       <c r="B1483" s="1" t="s">
-        <v>1616</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1484" spans="1:2" x14ac:dyDescent="0.25">
@@ -17359,108 +17353,108 @@
         <v>1489</v>
       </c>
       <c r="B1484" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1485" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B1485" s="1" t="s">
-        <v>1443</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1486" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B1486" s="1" t="s">
-        <v>1443</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="1487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1487" s="1" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="B1487" s="1" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="1488" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1488" s="1" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="B1488" s="1" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1489" s="1" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="B1489" s="1" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="1490" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1490" s="1" t="s">
-        <v>1499</v>
+        <v>1507</v>
       </c>
       <c r="B1490" s="1" t="s">
-        <v>1500</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1491" s="1" t="s">
-        <v>1502</v>
+        <v>1508</v>
       </c>
       <c r="B1491" s="1" t="s">
-        <v>1503</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="1492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1492" s="1" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B1492" s="1" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="1493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1493" s="1" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B1493" s="1" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="1494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1494" s="1" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B1494" s="1" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1495" s="1" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B1495" s="1" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="1496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1496" s="1" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B1496" s="1" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1497" s="1" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="B1497" s="1" t="s">
         <v>1517</v>
@@ -17468,42 +17462,42 @@
     </row>
     <row r="1498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1498" s="1" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B1498" s="1" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="1499" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1499" s="1" t="s">
-        <v>1520</v>
+        <v>1524</v>
       </c>
       <c r="B1499" s="1" t="s">
-        <v>1519</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="1500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1500" s="1" t="s">
-        <v>1521</v>
+        <v>1526</v>
       </c>
       <c r="B1500" s="1" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="1501" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1501" s="1" t="s">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="B1501" s="1" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1502" s="1" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B1502" s="1" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="1503" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17511,7 +17505,7 @@
         <v>1531</v>
       </c>
       <c r="B1503" s="1" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1504" spans="1:2" x14ac:dyDescent="0.25">
@@ -17519,95 +17513,104 @@
         <v>1532</v>
       </c>
       <c r="B1504" s="1" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="1505" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1505" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B1505" s="1" t="s">
-        <v>1530</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1506" s="1" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="B1506" s="1" t="s">
-        <v>1535</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="1507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1507" s="1" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="B1507" s="1" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="1508" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1508" s="1" t="s">
-        <v>1539</v>
+        <v>1235</v>
       </c>
       <c r="B1508" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1509" s="1" t="s">
-        <v>1540</v>
+        <v>1544</v>
       </c>
       <c r="B1509" s="1" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="1510" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1510" s="1" t="s">
-        <v>1236</v>
+        <v>1423</v>
       </c>
       <c r="B1510" s="1" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="1511" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1637</v>
+      </c>
+      <c r="C1510" s="1"/>
+      <c r="D1510" s="1"/>
+      <c r="E1510" s="1"/>
+      <c r="F1510" s="2"/>
+    </row>
+    <row r="1511" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1511" s="1" t="s">
-        <v>1546</v>
+        <v>1421</v>
       </c>
       <c r="B1511" s="1" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="1512" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1648</v>
+      </c>
+      <c r="C1511" s="1"/>
+      <c r="D1511" s="1"/>
+      <c r="E1511" s="1"/>
+      <c r="F1511" s="1"/>
+    </row>
+    <row r="1512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1512" s="1" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="B1512" s="1" t="s">
-        <v>1639</v>
+        <v>1629</v>
       </c>
       <c r="C1512" s="1"/>
       <c r="D1512" s="1"/>
       <c r="E1512" s="1"/>
-      <c r="F1512" s="2"/>
+      <c r="F1512" s="1"/>
+      <c r="G1512" s="1"/>
     </row>
     <row r="1513" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1513" s="1" t="s">
-        <v>1422</v>
+        <v>1427</v>
       </c>
       <c r="B1513" s="1" t="s">
-        <v>1650</v>
+        <v>1619</v>
       </c>
       <c r="C1513" s="1"/>
       <c r="D1513" s="1"/>
       <c r="E1513" s="1"/>
-      <c r="F1513" s="1"/>
+      <c r="F1513" s="2"/>
     </row>
     <row r="1514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1514" s="1" t="s">
-        <v>1427</v>
+        <v>1416</v>
       </c>
       <c r="B1514" s="1" t="s">
-        <v>1631</v>
+        <v>1657</v>
       </c>
       <c r="C1514" s="1"/>
       <c r="D1514" s="1"/>
@@ -17615,37 +17618,36 @@
       <c r="F1514" s="1"/>
       <c r="G1514" s="1"/>
     </row>
-    <row r="1515" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1515" s="1" t="s">
-        <v>1428</v>
+        <v>1415</v>
       </c>
       <c r="B1515" s="1" t="s">
-        <v>1621</v>
+        <v>1616</v>
       </c>
       <c r="C1515" s="1"/>
       <c r="D1515" s="1"/>
       <c r="E1515" s="1"/>
-      <c r="F1515" s="2"/>
+      <c r="F1515" s="1"/>
     </row>
     <row r="1516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1516" s="1" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="B1516" s="1" t="s">
-        <v>1659</v>
+        <v>1650</v>
       </c>
       <c r="C1516" s="1"/>
       <c r="D1516" s="1"/>
       <c r="E1516" s="1"/>
       <c r="F1516" s="1"/>
-      <c r="G1516" s="1"/>
-    </row>
-    <row r="1517" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1517" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1517" s="1" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B1517" s="1" t="s">
-        <v>1618</v>
+        <v>1659</v>
       </c>
       <c r="C1517" s="1"/>
       <c r="D1517" s="1"/>
@@ -17654,22 +17656,22 @@
     </row>
     <row r="1518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1518" s="1" t="s">
-        <v>1420</v>
+        <v>1424</v>
       </c>
       <c r="B1518" s="1" t="s">
-        <v>1652</v>
+        <v>1442</v>
       </c>
       <c r="C1518" s="1"/>
       <c r="D1518" s="1"/>
       <c r="E1518" s="1"/>
       <c r="F1518" s="1"/>
     </row>
-    <row r="1519" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1519" s="1" t="s">
-        <v>1418</v>
+        <v>1422</v>
       </c>
       <c r="B1519" s="1" t="s">
-        <v>1661</v>
+        <v>1638</v>
       </c>
       <c r="C1519" s="1"/>
       <c r="D1519" s="1"/>
@@ -17678,34 +17680,36 @@
     </row>
     <row r="1520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1520" s="1" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="B1520" s="1" t="s">
-        <v>1443</v>
+        <v>1645</v>
       </c>
       <c r="C1520" s="1"/>
       <c r="D1520" s="1"/>
       <c r="E1520" s="1"/>
       <c r="F1520" s="1"/>
+      <c r="G1520" s="1"/>
     </row>
     <row r="1521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1521" s="1" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
       <c r="B1521" s="1" t="s">
-        <v>1640</v>
+        <v>1656</v>
       </c>
       <c r="C1521" s="1"/>
       <c r="D1521" s="1"/>
       <c r="E1521" s="1"/>
       <c r="F1521" s="1"/>
-    </row>
-    <row r="1522" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1521" s="1"/>
+    </row>
+    <row r="1522" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1522" s="1" t="s">
-        <v>1421</v>
+        <v>1425</v>
       </c>
       <c r="B1522" s="1" t="s">
-        <v>1647</v>
+        <v>1630</v>
       </c>
       <c r="C1522" s="1"/>
       <c r="D1522" s="1"/>
@@ -17715,81 +17719,55 @@
     </row>
     <row r="1523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1523" s="1" t="s">
-        <v>1419</v>
+        <v>21</v>
       </c>
       <c r="B1523" s="1" t="s">
-        <v>1658</v>
+        <v>1628</v>
       </c>
       <c r="C1523" s="1"/>
       <c r="D1523" s="1"/>
       <c r="E1523" s="1"/>
-      <c r="F1523" s="1"/>
-      <c r="G1523" s="1"/>
-    </row>
-    <row r="1524" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F1523" s="2"/>
+    </row>
+    <row r="1524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1524" s="1" t="s">
-        <v>1426</v>
+        <v>1207</v>
       </c>
       <c r="B1524" s="1" t="s">
-        <v>1632</v>
-      </c>
-      <c r="C1524" s="1"/>
-      <c r="D1524" s="1"/>
-      <c r="E1524" s="1"/>
-      <c r="F1524" s="1"/>
-      <c r="G1524" s="1"/>
+        <v>1631</v>
+      </c>
     </row>
     <row r="1525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1525" s="1" t="s">
-        <v>21</v>
+        <v>1208</v>
       </c>
       <c r="B1525" s="1" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C1525" s="1"/>
-      <c r="D1525" s="1"/>
-      <c r="E1525" s="1"/>
-      <c r="F1525" s="2"/>
+        <v>1632</v>
+      </c>
     </row>
     <row r="1526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1526" s="1" t="s">
-        <v>1207</v>
+        <v>1634</v>
       </c>
       <c r="B1526" s="1" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1527" s="1" t="s">
-        <v>1208</v>
+        <v>1635</v>
       </c>
       <c r="B1527" s="1" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="1528" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1528" s="1" t="s">
         <v>1636</v>
       </c>
-      <c r="B1528" s="1" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="1529" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1529" s="1" t="s">
-        <v>1637</v>
-      </c>
-      <c r="B1529" s="1" t="s">
-        <v>1638</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1529" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
+  <autoFilter ref="A1:G1527" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
-  <conditionalFormatting sqref="A1522 A1523:B1048576 A1:B1521">
+  <conditionalFormatting sqref="A1520 A1521:B1048576 A1:B1519">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1522">
+  <conditionalFormatting sqref="B1520">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LuanTuTuc.xlsx
+++ b/LuanTuTuc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6981E4D-C76D-4115-B6C0-1F630FAF03BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9352CA4-5E0E-4832-A2E3-FC566F83666A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3056" uniqueCount="1695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3066" uniqueCount="1700">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -5122,6 +5122,21 @@
   </si>
   <si>
     <t xml:space="preserve">Con gái dùng nhan sắc để tiến thân, vinh hiến hơn con trai. </t>
+  </si>
+  <si>
+    <t>Vị trí cung Tử Tức so với ngũ hành Mệnh: Bình thường</t>
+  </si>
+  <si>
+    <t>Vị trí cung Tử Tức so với ngũ hành Mệnh: Tuyệt địa</t>
+  </si>
+  <si>
+    <t>Vị trí cung Tử Tức so với ngũ hành Mệnh: Sinh địa</t>
+  </si>
+  <si>
+    <t>Vị trí cung Tử Tức so với ngũ hành Mệnh: Vượng địa</t>
+  </si>
+  <si>
+    <t>Vị trí cung Tử Tức so với ngũ hành Mệnh: Bại địa</t>
   </si>
 </sst>
 </file>
@@ -5169,7 +5184,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5466,10 +5501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:G1527"/>
+  <dimension ref="A1:G1532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1451" workbookViewId="0">
-      <selection activeCell="H1457" sqref="H1457"/>
+    <sheetView tabSelected="1" topLeftCell="A1505" workbookViewId="0">
+      <selection activeCell="A1528" sqref="A1528:B1532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10526,7 +10561,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="632" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>636</v>
       </c>
@@ -14969,7 +15004,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="1187" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1187" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1187" s="1" t="s">
         <v>1162</v>
       </c>
@@ -17484,7 +17519,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="1501" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1501" s="1" t="s">
         <v>1529</v>
       </c>
@@ -17500,7 +17535,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="1503" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1503" s="1" t="s">
         <v>1531</v>
       </c>
@@ -17761,14 +17796,58 @@
         <v>1636</v>
       </c>
     </row>
+    <row r="1528" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1528" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B1528" s="1" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1529" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B1529" s="1" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1530" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B1530" s="1" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1531" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B1531" s="1" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1532" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B1532" s="1" t="s">
+        <v>1699</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1527" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
-  <conditionalFormatting sqref="A1520 A1521:B1048576 A1:B1519">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="A1520 A1521:B1527 A1:B1519 A1533:B1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1520">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1528:B1532">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanTuTuc.xlsx
+++ b/LuanTuTuc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tuvi\TuVi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9352CA4-5E0E-4832-A2E3-FC566F83666A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F36549-5150-445D-86F1-4D357AA36964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3066" uniqueCount="1700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3075" uniqueCount="1708">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -4640,9 +4640,6 @@
   </si>
   <si>
     <t>Con cái thông minh</t>
-  </si>
-  <si>
-    <t>Con khá giả, sau được nhờ con.</t>
   </si>
   <si>
     <t>Hóa Quyền toạ thủ cung Điền Trạch đối xung cung Tử Tức</t>
@@ -5137,6 +5134,33 @@
   </si>
   <si>
     <t>Vị trí cung Tử Tức so với ngũ hành Mệnh: Bại địa</t>
+  </si>
+  <si>
+    <t>Con khá giả, sau được nhờ con. Là ở cung lục thân, chủ về con cái khá tốt nhưng không thích đáng, nên phương thức nuôi dạy con cái quá nuông chiều, hơi giống như "phụng sự" con cái.</t>
+  </si>
+  <si>
+    <t>Vì mệnh tạo mang những điều mình trông mong đặt vào cung này, nên họ kì vọng quá nhiều ở con cái, mong muốn con cái thành rồng, thành phượng. Hóa Lộc ở cung tử nữ, chủ về con cái đa tình hơn mệnh tạo, hoặc con cái rất có duyên với người chung quanh.</t>
+  </si>
+  <si>
+    <t>Theo nguyên tắc "kép", cung tử nữ còn chủ về đối tượng của mối quan hệ yêu đương. Lúc có Hóa Lộc, bản thân đối tượng cũng là người được hưởng thụ, còn đa tình hơn mệnh tạo, có thể "người ấy" có kinh nghiệm phong phú trong tình trường.</t>
+  </si>
+  <si>
+    <t>Là chủ về vận đào hoa nam nữ thân mật, nên người Hóa Lộc ở cung tử nữ phần nhiều đều được hưởng thụ niềm vui và sự trói buộc mềm mại của tình yêu, vui vẻ chìm đắm trong tình cảm lãng mạn. Điều mong cầu là con cái, tình yêu; vì vậy lúc còn trẻ dễ gặp vận đào hoa thân mật, mà còn có nhiều đối tượng yêu đương.  Do tuyến "tử điền" là tuyến dẫn động vận đào hoa, có Hóa Lộc là chủ về trước khi kết hôn hay sau khi kết hôn đều dễ xảy ra tình trạng không chuyên nhất trong hôn nhân, hay theo đuổi những tình yêu gặp ở bên ngoài, sau khi kết hôn cơ hội đào hoa cũng nhiều hơn người bình thường.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cung tử nữ còn chủ về việc tiêu xài, lúc các sao trong cung quá mạnh, thì tình trạng tiêu xài, chi xuất sẽ nhiều hơn người bình thường một cách rõ rệt. Nhất là trường hợp có Hóa Lộc ở cung tử nữ, mệnh tạo sẽ rất dễ vì tính bốc đồng nhất thời mà tiêu xài tiền một cách liều mạng. Do tuyến "tử điền" còn đại biểu cho sự vui vẻ, có Hóa Lộc là chủ về giao tế thù tạc nhiều, tiền tiêu xài trong lúc thù tạc cũng nhiều, đồng thời cơ hội gặp dịp vui chơi cũng tương đối cao. Vì cung tử nữ cũng là cung vị hợp tác sự nghiệp, do ảnh hưởng đó, mệnh tạo thường tích cực đi tìm cơ hội hợp tác ở bên ngoài, đồng thời cũng tốn khá nhiều thời gian trong chuyện thù tạc, mà việc hợp tác sự nghiệp cũng đa dạng. </t>
+  </si>
+  <si>
+    <t>Là chủ về muốn sinh con cái (Hóa Lộc là kì vọng, hi vọng, mong muốn), và có nhiều con. Hóa Lộc ở cung tử nữ chiếu cung điền trạch, là chủ về mệnh tạo rất quan tâm gia đình, nhưng lại thu xếp không hợp lí, vì đây chỉ là quan tâm bằng tình cảm, chớ không có hành động thực tế.</t>
+  </si>
+  <si>
+    <t>Hóa Lộc, Lộc Tồn đồng cung tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Chủ về trong lòng thì muốn có nhiều, nhưng cảnh gặp gỡ tình cảm trong thực tế lại rất ít.</t>
+  </si>
+  <si>
+    <t>Hóa Lộc toạ thủ cung Tử Tức gặp Địa Không, Địa Kiếp</t>
   </si>
 </sst>
 </file>
@@ -5501,16 +5525,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:G1532"/>
+  <dimension ref="A1:G1534"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1505" workbookViewId="0">
-      <selection activeCell="A1528" sqref="A1528:B1532"/>
+    <sheetView tabSelected="1" topLeftCell="A1506" workbookViewId="0">
+      <selection activeCell="D1519" sqref="D1519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="71.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="53.140625" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" customWidth="1"/>
+    <col min="6" max="6" width="51.5703125" customWidth="1"/>
+    <col min="7" max="7" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -5518,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -5526,7 +5554,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -5534,7 +5562,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -5550,7 +5578,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6022,7 +6050,7 @@
         <v>82</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -10561,7 +10589,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="632" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>636</v>
       </c>
@@ -14097,7 +14125,7 @@
         <v>5</v>
       </c>
       <c r="B1073" s="1" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1074" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14105,7 +14133,7 @@
         <v>6</v>
       </c>
       <c r="B1074" s="1" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1075" spans="1:2" x14ac:dyDescent="0.25">
@@ -14113,7 +14141,7 @@
         <v>7</v>
       </c>
       <c r="B1075" s="1" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1076" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14121,7 +14149,7 @@
         <v>8</v>
       </c>
       <c r="B1076" s="1" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.25">
@@ -14137,7 +14165,7 @@
         <v>10</v>
       </c>
       <c r="B1078" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="1079" spans="1:2" x14ac:dyDescent="0.25">
@@ -14153,7 +14181,7 @@
         <v>12</v>
       </c>
       <c r="B1080" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="1081" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -14161,7 +14189,7 @@
         <v>13</v>
       </c>
       <c r="B1081" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1082" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -14169,7 +14197,7 @@
         <v>14</v>
       </c>
       <c r="B1082" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1083" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14177,7 +14205,7 @@
         <v>15</v>
       </c>
       <c r="B1083" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="1084" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -14185,7 +14213,7 @@
         <v>16</v>
       </c>
       <c r="B1084" s="1" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1085" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -14193,7 +14221,7 @@
         <v>17</v>
       </c>
       <c r="B1085" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="1086" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14201,7 +14229,7 @@
         <v>18</v>
       </c>
       <c r="B1086" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.25">
@@ -14217,7 +14245,7 @@
         <v>20</v>
       </c>
       <c r="B1088" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.25">
@@ -14238,10 +14266,10 @@
     </row>
     <row r="1091" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1091" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B1091" s="1" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="1092" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14249,7 +14277,7 @@
         <v>1077</v>
       </c>
       <c r="B1092" s="1" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="1093" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14257,7 +14285,7 @@
         <v>1078</v>
       </c>
       <c r="B1093" s="1" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="1094" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14265,7 +14293,7 @@
         <v>1079</v>
       </c>
       <c r="B1094" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1095" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14273,7 +14301,7 @@
         <v>1080</v>
       </c>
       <c r="B1095" s="1" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="1096" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14281,7 +14309,7 @@
         <v>1081</v>
       </c>
       <c r="B1096" s="1" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="1097" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -14289,7 +14317,7 @@
         <v>1082</v>
       </c>
       <c r="B1097" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="1098" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14297,7 +14325,7 @@
         <v>1083</v>
       </c>
       <c r="B1098" s="1" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="1099" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14305,7 +14333,7 @@
         <v>1084</v>
       </c>
       <c r="B1099" s="1" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="1100" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -14313,7 +14341,7 @@
         <v>1085</v>
       </c>
       <c r="B1100" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14321,7 +14349,7 @@
         <v>1086</v>
       </c>
       <c r="B1101" s="1" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1102" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -14329,7 +14357,7 @@
         <v>1087</v>
       </c>
       <c r="B1102" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="1103" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14337,7 +14365,7 @@
         <v>1088</v>
       </c>
       <c r="B1103" s="1" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="1104" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -14345,135 +14373,150 @@
         <v>1089</v>
       </c>
       <c r="B1104" s="1" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="1105" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1105" s="1" t="s">
         <v>1090</v>
       </c>
       <c r="B1105" s="1" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="1106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1106" s="1" t="s">
         <v>1091</v>
       </c>
       <c r="B1106" s="1" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="1107" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1107" s="1" t="s">
         <v>1092</v>
       </c>
       <c r="B1107" s="1" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="1108" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A1108" s="1" t="s">
         <v>1093</v>
       </c>
       <c r="B1108" s="1" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="1109" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1109" s="1" t="s">
         <v>1094</v>
       </c>
       <c r="B1109" s="1" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="1110" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1110" s="1" t="s">
         <v>1095</v>
       </c>
       <c r="B1110" s="1" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1111" s="1" t="s">
         <v>1096</v>
       </c>
       <c r="B1111" s="1" t="s">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="A1112" s="1" t="s">
         <v>1097</v>
       </c>
       <c r="B1112" s="1" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="1113" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1699</v>
+      </c>
+      <c r="C1112" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D1112" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E1112" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F1112" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="G1112" s="1" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1113" s="1" t="s">
         <v>1098</v>
       </c>
       <c r="B1113" s="1" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="1114" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A1114" s="1" t="s">
         <v>1099</v>
       </c>
       <c r="B1114" s="1" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="1115" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A1115" s="1" t="s">
         <v>1100</v>
       </c>
       <c r="B1115" s="1" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="1116" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1116" s="1" t="s">
         <v>1101</v>
       </c>
       <c r="B1116" s="1" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1117" s="1" t="s">
         <v>1102</v>
       </c>
       <c r="B1117" s="1" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="1118" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1118" s="1" t="s">
         <v>1103</v>
       </c>
       <c r="B1118" s="1" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A1119" s="1" t="s">
         <v>1104</v>
       </c>
       <c r="B1119" s="1" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="1120" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A1120" s="1" t="s">
         <v>1105</v>
       </c>
       <c r="B1120" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1121" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -14481,7 +14524,7 @@
         <v>1107</v>
       </c>
       <c r="B1121" s="1" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="1122" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -14489,7 +14532,7 @@
         <v>1106</v>
       </c>
       <c r="B1122" s="1" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="1123" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14497,7 +14540,7 @@
         <v>1108</v>
       </c>
       <c r="B1123" s="1" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1124" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14505,7 +14548,7 @@
         <v>1109</v>
       </c>
       <c r="B1124" s="1" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="1125" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -14513,7 +14556,7 @@
         <v>1110</v>
       </c>
       <c r="B1125" s="1" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="1126" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -14521,7 +14564,7 @@
         <v>1111</v>
       </c>
       <c r="B1126" s="1" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="1127" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -14529,7 +14572,7 @@
         <v>1112</v>
       </c>
       <c r="B1127" s="1" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="1128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -14537,7 +14580,7 @@
         <v>1113</v>
       </c>
       <c r="B1128" s="1" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14545,7 +14588,7 @@
         <v>1114</v>
       </c>
       <c r="B1129" s="1" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.25">
@@ -14553,7 +14596,7 @@
         <v>1115</v>
       </c>
       <c r="B1130" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1131" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14561,7 +14604,7 @@
         <v>1219</v>
       </c>
       <c r="B1131" s="1" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="1132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14569,7 +14612,7 @@
         <v>1220</v>
       </c>
       <c r="B1132" s="1" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="1133" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -14577,7 +14620,7 @@
         <v>1118</v>
       </c>
       <c r="B1133" s="1" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1134" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14585,7 +14628,7 @@
         <v>1117</v>
       </c>
       <c r="B1134" s="1" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.25">
@@ -14593,7 +14636,7 @@
         <v>1221</v>
       </c>
       <c r="B1135" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="1136" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -14601,7 +14644,7 @@
         <v>1222</v>
       </c>
       <c r="B1136" s="1" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1137" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -14609,7 +14652,7 @@
         <v>1223</v>
       </c>
       <c r="B1137" s="1" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.25">
@@ -14617,7 +14660,7 @@
         <v>1224</v>
       </c>
       <c r="B1138" s="1" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1139" spans="1:2" x14ac:dyDescent="0.25">
@@ -14625,7 +14668,7 @@
         <v>1225</v>
       </c>
       <c r="B1139" s="1" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1140" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -14633,7 +14676,7 @@
         <v>1226</v>
       </c>
       <c r="B1140" s="1" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1141" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14641,7 +14684,7 @@
         <v>1227</v>
       </c>
       <c r="B1141" s="1" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1142" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14649,7 +14692,7 @@
         <v>1116</v>
       </c>
       <c r="B1142" s="1" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="1143" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14657,7 +14700,7 @@
         <v>1228</v>
       </c>
       <c r="B1143" s="1" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.25">
@@ -14665,7 +14708,7 @@
         <v>1119</v>
       </c>
       <c r="B1144" s="1" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.25">
@@ -14673,7 +14716,7 @@
         <v>1120</v>
       </c>
       <c r="B1145" s="1" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1146" spans="1:2" x14ac:dyDescent="0.25">
@@ -14681,7 +14724,7 @@
         <v>1121</v>
       </c>
       <c r="B1146" s="1" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.25">
@@ -14689,7 +14732,7 @@
         <v>1122</v>
       </c>
       <c r="B1147" s="1" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.25">
@@ -14697,7 +14740,7 @@
         <v>1123</v>
       </c>
       <c r="B1148" s="1" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1149" spans="1:2" x14ac:dyDescent="0.25">
@@ -14705,7 +14748,7 @@
         <v>1124</v>
       </c>
       <c r="B1149" s="1" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.25">
@@ -14713,7 +14756,7 @@
         <v>1125</v>
       </c>
       <c r="B1150" s="1" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1151" spans="1:2" x14ac:dyDescent="0.25">
@@ -14721,7 +14764,7 @@
         <v>1126</v>
       </c>
       <c r="B1151" s="1" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.25">
@@ -14729,7 +14772,7 @@
         <v>1127</v>
       </c>
       <c r="B1152" s="1" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1153" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14737,7 +14780,7 @@
         <v>1128</v>
       </c>
       <c r="B1153" s="1" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1154" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14745,7 +14788,7 @@
         <v>1129</v>
       </c>
       <c r="B1154" s="1" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1155" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14753,7 +14796,7 @@
         <v>1130</v>
       </c>
       <c r="B1155" s="1" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.25">
@@ -14761,7 +14804,7 @@
         <v>1131</v>
       </c>
       <c r="B1156" s="1" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.25">
@@ -14769,7 +14812,7 @@
         <v>1132</v>
       </c>
       <c r="B1157" s="1" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.25">
@@ -14777,7 +14820,7 @@
         <v>1133</v>
       </c>
       <c r="B1158" s="1" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.25">
@@ -14785,7 +14828,7 @@
         <v>1134</v>
       </c>
       <c r="B1159" s="1" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.25">
@@ -14793,7 +14836,7 @@
         <v>1135</v>
       </c>
       <c r="B1160" s="1" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.25">
@@ -14801,7 +14844,7 @@
         <v>1136</v>
       </c>
       <c r="B1161" s="1" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1162" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -14809,7 +14852,7 @@
         <v>1137</v>
       </c>
       <c r="B1162" s="1" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.25">
@@ -14817,7 +14860,7 @@
         <v>1138</v>
       </c>
       <c r="B1163" s="1" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.25">
@@ -14825,7 +14868,7 @@
         <v>1139</v>
       </c>
       <c r="B1164" s="1" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1165" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -14833,7 +14876,7 @@
         <v>1140</v>
       </c>
       <c r="B1165" s="1" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.25">
@@ -14841,7 +14884,7 @@
         <v>1141</v>
       </c>
       <c r="B1166" s="1" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.25">
@@ -14849,7 +14892,7 @@
         <v>1142</v>
       </c>
       <c r="B1167" s="1" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.25">
@@ -14857,7 +14900,7 @@
         <v>1143</v>
       </c>
       <c r="B1168" s="1" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1169" spans="1:2" x14ac:dyDescent="0.25">
@@ -14865,7 +14908,7 @@
         <v>1144</v>
       </c>
       <c r="B1169" s="1" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.25">
@@ -14873,7 +14916,7 @@
         <v>1145</v>
       </c>
       <c r="B1170" s="1" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.25">
@@ -14881,7 +14924,7 @@
         <v>1146</v>
       </c>
       <c r="B1171" s="1" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.25">
@@ -14889,7 +14932,7 @@
         <v>1147</v>
       </c>
       <c r="B1172" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1173" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14897,7 +14940,7 @@
         <v>1148</v>
       </c>
       <c r="B1173" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1174" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14905,7 +14948,7 @@
         <v>1149</v>
       </c>
       <c r="B1174" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1175" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14913,7 +14956,7 @@
         <v>1150</v>
       </c>
       <c r="B1175" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1176" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14921,7 +14964,7 @@
         <v>1151</v>
       </c>
       <c r="B1176" s="1" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1177" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14929,7 +14972,7 @@
         <v>1152</v>
       </c>
       <c r="B1177" s="1" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1178" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14937,7 +14980,7 @@
         <v>1153</v>
       </c>
       <c r="B1178" s="1" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1179" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14945,7 +14988,7 @@
         <v>1154</v>
       </c>
       <c r="B1179" s="1" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="1180" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14953,7 +14996,7 @@
         <v>1155</v>
       </c>
       <c r="B1180" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1181" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14961,7 +15004,7 @@
         <v>1156</v>
       </c>
       <c r="B1181" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1182" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14969,7 +15012,7 @@
         <v>1157</v>
       </c>
       <c r="B1182" s="1" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="1183" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14977,7 +15020,7 @@
         <v>1158</v>
       </c>
       <c r="B1183" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1184" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14985,7 +15028,7 @@
         <v>1159</v>
       </c>
       <c r="B1184" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.25">
@@ -14993,7 +15036,7 @@
         <v>1160</v>
       </c>
       <c r="B1185" s="1" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="1186" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15001,15 +15044,15 @@
         <v>1161</v>
       </c>
       <c r="B1186" s="1" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="1187" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1187" s="1" t="s">
         <v>1162</v>
       </c>
       <c r="B1187" s="1" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.25">
@@ -15017,7 +15060,7 @@
         <v>1163</v>
       </c>
       <c r="B1188" s="1" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="1189" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15025,7 +15068,7 @@
         <v>1164</v>
       </c>
       <c r="B1189" s="1" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.25">
@@ -15033,7 +15076,7 @@
         <v>1165</v>
       </c>
       <c r="B1190" s="1" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.25">
@@ -15041,7 +15084,7 @@
         <v>1166</v>
       </c>
       <c r="B1191" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="1192" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15049,7 +15092,7 @@
         <v>1167</v>
       </c>
       <c r="B1192" s="1" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.25">
@@ -15057,7 +15100,7 @@
         <v>1168</v>
       </c>
       <c r="B1193" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.25">
@@ -15065,7 +15108,7 @@
         <v>1169</v>
       </c>
       <c r="B1194" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.25">
@@ -15073,7 +15116,7 @@
         <v>1170</v>
       </c>
       <c r="B1195" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.25">
@@ -15081,7 +15124,7 @@
         <v>1171</v>
       </c>
       <c r="B1196" s="1" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.25">
@@ -15089,7 +15132,7 @@
         <v>1172</v>
       </c>
       <c r="B1197" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="1198" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15097,7 +15140,7 @@
         <v>1173</v>
       </c>
       <c r="B1198" s="1" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.25">
@@ -15105,7 +15148,7 @@
         <v>1174</v>
       </c>
       <c r="B1199" s="1" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.25">
@@ -15113,7 +15156,7 @@
         <v>1175</v>
       </c>
       <c r="B1200" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="1201" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15121,7 +15164,7 @@
         <v>1176</v>
       </c>
       <c r="B1201" s="1" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.25">
@@ -15129,7 +15172,7 @@
         <v>1177</v>
       </c>
       <c r="B1202" s="1" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1203" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15137,7 +15180,7 @@
         <v>1178</v>
       </c>
       <c r="B1203" s="1" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="1204" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15145,7 +15188,7 @@
         <v>1179</v>
       </c>
       <c r="B1204" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.25">
@@ -15153,7 +15196,7 @@
         <v>1180</v>
       </c>
       <c r="B1205" s="1" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1206" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15161,7 +15204,7 @@
         <v>1181</v>
       </c>
       <c r="B1206" s="1" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="1207" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15169,7 +15212,7 @@
         <v>1182</v>
       </c>
       <c r="B1207" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1208" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15177,7 +15220,7 @@
         <v>1183</v>
       </c>
       <c r="B1208" s="1" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1209" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15185,7 +15228,7 @@
         <v>1184</v>
       </c>
       <c r="B1209" s="1" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1210" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15193,7 +15236,7 @@
         <v>1185</v>
       </c>
       <c r="B1210" s="1" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1211" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15201,7 +15244,7 @@
         <v>1186</v>
       </c>
       <c r="B1211" s="1" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1212" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15209,7 +15252,7 @@
         <v>1187</v>
       </c>
       <c r="B1212" s="1" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1213" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15217,7 +15260,7 @@
         <v>1188</v>
       </c>
       <c r="B1213" s="1" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.25">
@@ -15225,7 +15268,7 @@
         <v>1189</v>
       </c>
       <c r="B1214" s="1" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1215" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15233,7 +15276,7 @@
         <v>1190</v>
       </c>
       <c r="B1215" s="1" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1216" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15241,7 +15284,7 @@
         <v>1191</v>
       </c>
       <c r="B1216" s="1" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1217" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15249,7 +15292,7 @@
         <v>1192</v>
       </c>
       <c r="B1217" s="1" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.25">
@@ -15257,7 +15300,7 @@
         <v>1193</v>
       </c>
       <c r="B1218" s="1" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.25">
@@ -15265,7 +15308,7 @@
         <v>1194</v>
       </c>
       <c r="B1219" s="1" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.25">
@@ -15273,7 +15316,7 @@
         <v>1195</v>
       </c>
       <c r="B1220" s="1" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1221" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15281,7 +15324,7 @@
         <v>1196</v>
       </c>
       <c r="B1221" s="1" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.25">
@@ -15289,7 +15332,7 @@
         <v>1197</v>
       </c>
       <c r="B1222" s="1" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1223" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15297,7 +15340,7 @@
         <v>1198</v>
       </c>
       <c r="B1223" s="1" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1224" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15305,7 +15348,7 @@
         <v>1199</v>
       </c>
       <c r="B1224" s="1" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1225" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15313,7 +15356,7 @@
         <v>1200</v>
       </c>
       <c r="B1225" s="1" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1226" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15321,7 +15364,7 @@
         <v>1201</v>
       </c>
       <c r="B1226" s="1" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.25">
@@ -15329,7 +15372,7 @@
         <v>1202</v>
       </c>
       <c r="B1227" s="1" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.25">
@@ -15337,7 +15380,7 @@
         <v>1203</v>
       </c>
       <c r="B1228" s="1" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.25">
@@ -15345,7 +15388,7 @@
         <v>1209</v>
       </c>
       <c r="B1229" s="1" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.25">
@@ -15353,7 +15396,7 @@
         <v>1210</v>
       </c>
       <c r="B1230" s="1" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1231" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15361,7 +15404,7 @@
         <v>1211</v>
       </c>
       <c r="B1231" s="1" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1232" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15369,7 +15412,7 @@
         <v>1212</v>
       </c>
       <c r="B1232" s="1" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.25">
@@ -15377,7 +15420,7 @@
         <v>1213</v>
       </c>
       <c r="B1233" s="1" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.25">
@@ -15385,7 +15428,7 @@
         <v>1214</v>
       </c>
       <c r="B1234" s="1" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="1235" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15393,7 +15436,7 @@
         <v>1215</v>
       </c>
       <c r="B1235" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1236" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15401,7 +15444,7 @@
         <v>1216</v>
       </c>
       <c r="B1236" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1237" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15409,7 +15452,7 @@
         <v>1217</v>
       </c>
       <c r="B1237" s="1" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.25">
@@ -16041,7 +16084,7 @@
         <v>1306</v>
       </c>
       <c r="B1316" s="1" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1317" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16049,7 +16092,7 @@
         <v>1307</v>
       </c>
       <c r="B1317" s="1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.25">
@@ -16073,7 +16116,7 @@
         <v>1310</v>
       </c>
       <c r="B1320" s="1" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.25">
@@ -16081,7 +16124,7 @@
         <v>1311</v>
       </c>
       <c r="B1321" s="1" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.25">
@@ -16105,7 +16148,7 @@
         <v>1314</v>
       </c>
       <c r="B1324" s="1" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.25">
@@ -16113,7 +16156,7 @@
         <v>1315</v>
       </c>
       <c r="B1325" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.25">
@@ -16129,7 +16172,7 @@
         <v>1317</v>
       </c>
       <c r="B1327" s="1" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1328" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16137,7 +16180,7 @@
         <v>1318</v>
       </c>
       <c r="B1328" s="1" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.25">
@@ -16177,7 +16220,7 @@
         <v>1323</v>
       </c>
       <c r="B1333" s="1" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.25">
@@ -16217,7 +16260,7 @@
         <v>1328</v>
       </c>
       <c r="B1338" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1339" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16225,7 +16268,7 @@
         <v>1329</v>
       </c>
       <c r="B1339" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.25">
@@ -16265,7 +16308,7 @@
         <v>1334</v>
       </c>
       <c r="B1344" s="1" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.25">
@@ -16353,7 +16396,7 @@
         <v>1345</v>
       </c>
       <c r="B1355" s="1" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="1356" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16601,7 +16644,7 @@
         <v>1376</v>
       </c>
       <c r="B1386" s="1" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1387" spans="1:2" x14ac:dyDescent="0.25">
@@ -16705,7 +16748,7 @@
         <v>1389</v>
       </c>
       <c r="B1399" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.25">
@@ -17030,42 +17073,42 @@
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1440" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B1440" s="1" t="s">
         <v>1677</v>
-      </c>
-      <c r="B1440" s="1" t="s">
-        <v>1678</v>
       </c>
     </row>
     <row r="1441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1441" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B1441" s="1" t="s">
         <v>1679</v>
-      </c>
-      <c r="B1441" s="1" t="s">
-        <v>1680</v>
       </c>
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1442" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B1442" s="1" t="s">
         <v>1681</v>
-      </c>
-      <c r="B1442" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="1443" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1443" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B1443" s="1" t="s">
         <v>1683</v>
-      </c>
-      <c r="B1443" s="1" t="s">
-        <v>1684</v>
       </c>
     </row>
     <row r="1444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1444" s="1" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B1444" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="1445" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17073,7 +17116,7 @@
         <v>1204</v>
       </c>
       <c r="B1445" s="1" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1446" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17081,31 +17124,31 @@
         <v>1205</v>
       </c>
       <c r="B1446" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1447" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B1447" s="1" t="s">
         <v>1649</v>
-      </c>
-      <c r="B1447" s="1" t="s">
-        <v>1650</v>
       </c>
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1448" s="1" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B1448" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1449" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1449" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B1449" s="1" t="s">
         <v>1686</v>
-      </c>
-      <c r="B1449" s="1" t="s">
-        <v>1687</v>
       </c>
     </row>
     <row r="1450" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17113,7 +17156,7 @@
         <v>1206</v>
       </c>
       <c r="B1450" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.25">
@@ -17137,7 +17180,7 @@
         <v>1453</v>
       </c>
       <c r="B1453" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.25">
@@ -17161,7 +17204,7 @@
         <v>1455</v>
       </c>
       <c r="B1456" s="1" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1457" spans="1:3" x14ac:dyDescent="0.25">
@@ -17169,7 +17212,7 @@
         <v>1456</v>
       </c>
       <c r="B1457" s="1" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1458" spans="1:3" x14ac:dyDescent="0.25">
@@ -17177,7 +17220,7 @@
         <v>1457</v>
       </c>
       <c r="B1458" s="1" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1459" spans="1:3" x14ac:dyDescent="0.25">
@@ -17193,7 +17236,7 @@
         <v>1459</v>
       </c>
       <c r="B1460" s="1" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1461" spans="1:3" x14ac:dyDescent="0.25">
@@ -17308,7 +17351,7 @@
         <v>1479</v>
       </c>
       <c r="B1474" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1475" spans="1:2" x14ac:dyDescent="0.25">
@@ -17332,7 +17375,7 @@
         <v>1482</v>
       </c>
       <c r="B1477" s="1" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1478" spans="1:2" x14ac:dyDescent="0.25">
@@ -17340,7 +17383,7 @@
         <v>1483</v>
       </c>
       <c r="B1478" s="1" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1479" spans="1:2" x14ac:dyDescent="0.25">
@@ -17348,7 +17391,7 @@
         <v>1484</v>
       </c>
       <c r="B1479" s="1" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1480" spans="1:2" x14ac:dyDescent="0.25">
@@ -17364,7 +17407,7 @@
         <v>1486</v>
       </c>
       <c r="B1481" s="1" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1482" spans="1:2" x14ac:dyDescent="0.25">
@@ -17519,7 +17562,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="1501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1501" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1501" s="1" t="s">
         <v>1529</v>
       </c>
@@ -17535,7 +17578,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="1503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1503" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1503" s="1" t="s">
         <v>1531</v>
       </c>
@@ -17561,18 +17604,18 @@
     </row>
     <row r="1506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1506" s="1" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B1506" s="1" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1507" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B1507" s="1" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="1508" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17580,15 +17623,15 @@
         <v>1235</v>
       </c>
       <c r="B1508" s="1" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="1509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1509" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B1509" s="1" t="s">
         <v>1544</v>
-      </c>
-      <c r="B1509" s="1" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="1510" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -17596,7 +17639,7 @@
         <v>1423</v>
       </c>
       <c r="B1510" s="1" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="C1510" s="1"/>
       <c r="D1510" s="1"/>
@@ -17608,7 +17651,7 @@
         <v>1421</v>
       </c>
       <c r="B1511" s="1" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="C1511" s="1"/>
       <c r="D1511" s="1"/>
@@ -17620,7 +17663,7 @@
         <v>1426</v>
       </c>
       <c r="B1512" s="1" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C1512" s="1"/>
       <c r="D1512" s="1"/>
@@ -17633,7 +17676,7 @@
         <v>1427</v>
       </c>
       <c r="B1513" s="1" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="C1513" s="1"/>
       <c r="D1513" s="1"/>
@@ -17645,7 +17688,7 @@
         <v>1416</v>
       </c>
       <c r="B1514" s="1" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="C1514" s="1"/>
       <c r="D1514" s="1"/>
@@ -17658,7 +17701,7 @@
         <v>1415</v>
       </c>
       <c r="B1515" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C1515" s="1"/>
       <c r="D1515" s="1"/>
@@ -17670,7 +17713,7 @@
         <v>1419</v>
       </c>
       <c r="B1516" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="C1516" s="1"/>
       <c r="D1516" s="1"/>
@@ -17682,7 +17725,7 @@
         <v>1417</v>
       </c>
       <c r="B1517" s="1" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="C1517" s="1"/>
       <c r="D1517" s="1"/>
@@ -17706,7 +17749,7 @@
         <v>1422</v>
       </c>
       <c r="B1519" s="1" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="C1519" s="1"/>
       <c r="D1519" s="1"/>
@@ -17718,7 +17761,7 @@
         <v>1420</v>
       </c>
       <c r="B1520" s="1" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="C1520" s="1"/>
       <c r="D1520" s="1"/>
@@ -17731,7 +17774,7 @@
         <v>1418</v>
       </c>
       <c r="B1521" s="1" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C1521" s="1"/>
       <c r="D1521" s="1"/>
@@ -17744,7 +17787,7 @@
         <v>1425</v>
       </c>
       <c r="B1522" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C1522" s="1"/>
       <c r="D1522" s="1"/>
@@ -17757,7 +17800,7 @@
         <v>21</v>
       </c>
       <c r="B1523" s="1" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="C1523" s="1"/>
       <c r="D1523" s="1"/>
@@ -17769,7 +17812,7 @@
         <v>1207</v>
       </c>
       <c r="B1524" s="1" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1525" spans="1:7" x14ac:dyDescent="0.25">
@@ -17777,63 +17820,79 @@
         <v>1208</v>
       </c>
       <c r="B1525" s="1" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1526" s="1" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B1526" s="1" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1527" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B1527" s="1" t="s">
         <v>1635</v>
-      </c>
-      <c r="B1527" s="1" t="s">
-        <v>1636</v>
       </c>
     </row>
     <row r="1528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1528" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B1528" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1529" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B1529" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1530" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B1530" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1531" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B1531" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1532" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B1532" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1533" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B1533" s="1" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1534" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B1534" s="1" t="s">
+        <v>1706</v>
       </c>
     </row>
   </sheetData>

--- a/LuanTuTuc.xlsx
+++ b/LuanTuTuc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F36549-5150-445D-86F1-4D357AA36964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A780168-3D55-49EA-8523-A1E171B45C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3075" uniqueCount="1708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3087" uniqueCount="1717">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -5161,6 +5161,33 @@
   </si>
   <si>
     <t>Hóa Lộc toạ thủ cung Tử Tức gặp Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Hóa Quyền có thể đại biểu cho một sở trường hay chuyên môn nào đó; lấy phương thức so sánh để luận, con cái sẽ có nghề chuyên môn ở một lãnh vực nào đó, hơn mệnh tạo.</t>
+  </si>
+  <si>
+    <t>Cung tử nữ là cung lục thân, không phải là "ngã cung", trường hợp Hóa Quyền rơi vào cung này, nếu dùng phương pháp so sánh để luận đoán thì con cái sẽ ở thế mạnh hơn mệnh tạo. Hơn nữa, Hóa Quyền ở cung vị thiên di của cung điền trạch, có thể luận chúng là người nắm quyền trong nhà. Hóa Quyền ở "tha cung", bản thân mệnh tạo sẽ thiếu động lực và sự toan tính, sau khi có con cái, Hóa Quyền mới khơi động làm cho mệnh tạo tích cực hơn. Ngoài ra, Hóa Quyền ở cung tử nữ, là chủ về mệnh tạo vì muốn con cái có cuộc sống tốt hơn mà phải cố gắng, người này còn có tâm lí rất kì vọng con cái thành đạt. Nhưng vì Hóa Quyền ở cung tử nữ, nên phải phòng mệnh tạo có cách giáo dục sai lầm khiến con cái phát triển "cái tôi" một cách thái quá, dễ có trạng thái tâm lí lúc nào cũng cho mình là đúng. Mệnh tạo sẽ cảm thấy con cái ngỗ nghịch, khó dạy dỗ, và cũng có sự ngăn cách giữa hai đời.</t>
+  </si>
+  <si>
+    <t>Đối với bản thân mệnh tạo, Hóa Quyền ở cung tử nữ là khơi động cung vị thiên di của cung điền trạch, bình thường mệnh tạo ở nhà không đi đâu, cũng sẽ thành thường hay ra bên ngoài, phần nhiều nguyên nhân ra bên ngoài là vì công việc, hoặc vì giao tế thù tạc, hơi khác với "dịch động" của chính cung thiên di. Cung tử nữ cũng là cung vị chủ về hợp tác, trường hợp có Hóa Quyền, là chủ về mệnh tạo muốn đầu tư và hợp tác làm ăn, tham gia nhiều công việc làm ăn, đồng thời cũng có tượng hợp tác nhanh mà tan rã cũng nhanh. Nếu xem về tình hình hợp tác, thì người hợp tác sẽ chuyên nghiệp và có năng lực hơn mệnh tạo, nhưng trong quá trình hợp tác dễ xảy ra tình trạng tranh chấp trong các cổ đông bầu không khí hợp tác không được tốt.</t>
+  </si>
+  <si>
+    <t>Trường hợp này còn có thể xem là Hóa Quyền ở cung vị quan lộc của cung nô bộc, trong lúc sự nghiệp hợp tác tiến triển, bản thân mệnh tạo tham dự với mức độ thấp, cũng có ý tượng giao quyền cho cổ đông khác. Cung tử nữ là cung vị tiêu xài, trường hợp có Hóa Quyền là mệnh tạo rất dám tiêu xài tiền. Tuyến "tử điền" còn có hàm ý tiêu tốn vì giải trí và hưởng thụ, cho nên cũng sẽ là kiếu tiêu xài mang tính tâm trạng, và tốc độ tiêu xài khá nhanh. Cung tử nữ còn chủ về quan hệ tính dục, hành vi tính dục, trường hợp có Hóa Quyền, mệnh tạo sẽ có nhu cầu nhiều về phương diện sinh hoạt tình dục. Nếu cung phu thê và cung phúc đức bị ảnh hưởng của Hóa Quyền ở cung tử nữ, thì mức độ hòa hợp ân ái trong đời sống tình cảm sẽ cao hơn. Cung tử nữ còn là cung vị giao tế, thù tạc của mệnh tạo, trường hợp có Hóa Quyền sẽ chủ về có nhiều cơ hội giao tế thù tạc, quen bạn bè cũng nhiêu, mà cơ hội gặp gõ đào hoa cũng nhiều hơn. Chủ về quan hệ đào hoa và sự tiêu xài hưởng thụ của mệnh tạo thường liên quan đến việc giao tế thù tạc, vui chơi "phong hoa tuyết nguyệt". Xem xét tuyến "từ điền", do tác dụng của Hóa Quyền, nên tình huống đào hoa của mệnh tạo không có tính lâu dài, mà thường chỉ là tình một đêm, khả năng lớn nhất là do mệnh tạo ở xa nhà nên xảy ra chuyện đào hoa.</t>
+  </si>
+  <si>
+    <t>Hóa Quyền toạ thủ cung Tử Tức gặp Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Hóa Quyền toạ thủ cung Tử Tức gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Hóa Quyền toạ thủ cung Tử Tức gặp Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Hóa Quyền toạ thủ cung Tử Tức gặp Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Cần phải cẩn thận, dễ xảy ra trường hợp khó sinh, hoặc có khả năng phải sinh mổ</t>
   </si>
 </sst>
 </file>
@@ -5525,10 +5552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:G1534"/>
+  <dimension ref="A1:G1538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1506" workbookViewId="0">
-      <selection activeCell="D1519" sqref="D1519"/>
+    <sheetView tabSelected="1" topLeftCell="A1113" workbookViewId="0">
+      <selection activeCell="C1113" sqref="C1113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14455,12 +14482,24 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="1113" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="1113" spans="1:7" ht="360" x14ac:dyDescent="0.25">
       <c r="A1113" s="1" t="s">
         <v>1098</v>
       </c>
       <c r="B1113" s="1" t="s">
         <v>1574</v>
+      </c>
+      <c r="C1113" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D1113" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E1113" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F1113" s="1" t="s">
+        <v>1711</v>
       </c>
     </row>
     <row r="1114" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -17893,6 +17932,38 @@
       </c>
       <c r="B1534" s="1" t="s">
         <v>1706</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1535" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B1535" s="1" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1536" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B1536" s="1" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1537" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B1537" s="1" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1538" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B1538" s="1" t="s">
+        <v>1716</v>
       </c>
     </row>
   </sheetData>

--- a/LuanTuTuc.xlsx
+++ b/LuanTuTuc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A780168-3D55-49EA-8523-A1E171B45C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3639BE-7011-48C6-932C-F834298E0AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3087" uniqueCount="1717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3092" uniqueCount="1722">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -5188,6 +5188,21 @@
   </si>
   <si>
     <t>Cần phải cẩn thận, dễ xảy ra trường hợp khó sinh, hoặc có khả năng phải sinh mổ</t>
+  </si>
+  <si>
+    <t>Hóa Khoa là tượng trưng cho một dạng động thái, cung vị có động thái ắt sẽ sinh ra biến động thay đổi. Trường hợp Hóa Khoa ở cung tử nữ, phần nhiều là chủ về có thể có con, trong một số ít tình huống là chủ về đối tượng đào hoa. Các cung lục thân đều có hàm ý so sánh hơn kém với mệnh tạo, Hóa Khoa ở cung tử nữ là chủ về con cái khá ưu tú, tâm tính, tư duy đều bình ổn; hơn nữa, phần nhiều là tướng mạo thanh tú, khí chất xuất chúng, nhiều lúc cũng có thể luận đoán mở rộng là con cái có thân hình xinh đẹp, không quá mập.</t>
+  </si>
+  <si>
+    <t>Trong mệnh bàn của mệnh tạo, Hóa Khoa [năm sinh] duy nhất đặt ở cung tử nữ, là chủ về mệnh tạo cũng sẽ tận tâm tận lực che chở bảo vệ con cái, trong quá trình sinh đẻ phần nhiều cũng được "gặp hung hóa cát", con cái ít gặp nạn ai. Cung tử nữ là cung vị thiên di của cung điền trạch, cho nên trường hợp cung tử nữ có Hóa Khoa, xem từ góc độ cung điền trạch (tức gia đình của mệnh tạo), là người trong nhà trông mong con cái thành tựu. Nhưng vì tác dụng của Hóa Khoa là ổn định, thực dụng; nên cũng chủ về gia đình mệnh tạo không có kì vọng cao xa, cũng sẽ không mong ước hay theo đuổi cuộc sống xa hoa; vì vậy an định, bình dị, thực thà, không lo phiền và không có tai họa là những mong ước chủ yếu.</t>
+  </si>
+  <si>
+    <t>Cung tử nữ là cung vị chủ về đầu tư hợp tác, ở cung tử nữ thấy Hóa Khoa, là chủ về lúc tiến hành đầu tư phần nhiều mệnh tạo dựa vào lí trí và rất thực dụng. Cũng chủ về việc hùn vốn làm ăn được bình yên thuận lợi, giữa những người hợp tác có chế độ hợp lí và tôn trọng lẫn nhau, đối tượng hợp tác cũng là người bình dị, thực thà, quá trình hợp tác cũng thấy có hòa khí. Vì cung tử nữ là cung vị khí số của cung nô bộc, cho nên không chỉ đại biểu cho tố chất của con cái, mà còn có thể dùng để luận giải về bạn bè giao du. Cung tử nữ có Hóa Khoa là chủ về bạn bè qua lại gần gũi, sốt sắng; phần nhiều bạn bè là người thấu tình đạt lí, tâm tính thiện lương, không trái với quy củ. Cung tử nữ là cung vị biểu hiện (cung vị tài bạch) của cung phụ mẫu, cho nên ý tượng của trường hợp cung tử nữ có Hóa Khoa là cha mẹ có thái độ đối nhân xử thế hòa hợp, bao dung, bình dị, thực thà, là người có trong giới chuyên nghiệp hoặc có sở học tinh chuyên; phần nhiều cha mẹ không phải là người trong giới kinh doanh buôn bán, mà là người đi làm hưởng lương (bao gồm nhân viên công vụ), trừ phi là Vũ Khúc Hóa Khoa hoặc có tổ hợp sao đặc biệt khác đồng cung. Vì Hóa Khoa ở cung vị biểu hiện của cung phụ mẫu, nên phần nhiều là cha mẹ sống với nhau yên bình hòa hợp, có tác dụng giáo dục đối với mệnh tạo.</t>
+  </si>
+  <si>
+    <t>Cung tử nữ là cung chủ về tiêu xài chi ra, thấy Hóa Khoa là chủ về dùng tiền hợp lí, có quan niệm thu chi cân đối, cho nên đương sự không đến nỗi sùng thượng cuộc sống xa hoa, mà có kế hoạch chi xuất rõ ràng; có lúc cũng chủ về tình hình chi xuất cho vấn đề nào đó một cách lâu dài, đặc biệt là chi xuất cho bảo hiếm hay mua nhà trả góp. Do Hóa Khoa ở cung tử nữ, vì vậy sau khi sinh con mới khơi động cơ chế của Hóa Khoa, mới bắt đầu có tác dụng "che chở". Cho nên có thể xem con cái là quý nhân của mệnh tạo. Lúc con cái còn bé, Hóa Khoa ở đây có tác dụng ổn định gia đình, trợ lực cho việc duy trì hôn nhân của mệnh tạo và người phối ngẫu; sau khi con cái trưởng thành, Hóa Khoa ở đây có tác dụng ngầm trợ lực cho mệnh tạo. Cung tử nữ còn là cung chủ về hưởng lạc, là cung chủ về tình hình hưởng thụ sinh hoạt tình dục; Hóa Khoa ở cung tử nữ, là có hàm ý lãng mạn, về tinh thần mệnh tạo được hưởng thụ đầy đủ niềm hoan lạc, tức vợ chồng có sinh hoạt tình dục hòa hợp viên mãn, tình cảm giữa hai người cũng có thể duy trì lâu dài. Nhưng cung tử nữ thấy Hóa Khoa, ngoại trừ hàm nghĩa chú trọng sinh hoạt tình dục, còn ngầm báo ý mất đi sự bình lặng thường có, vì vậy cũng tiềm phục ý tượng ngoại tình.</t>
+  </si>
+  <si>
+    <t>Cung tử nữ còn là cung chủ về hưởng lạc, là cung chủ về tình hình hưởng thụ sinh hoạt tình dục; Hóa Khoa ở cung tử nữ, là có hàm ý lãng mạn, về tinh thần mệnh tạo được hưởng thụ đầy đủ niềm hoan lạc, tức vợ chồng có sinh hoạt tình dục hòa hợp viên mãn, tình cảm giữa hai người cũng có thể duy trì lâu dài. Nhưng cung tử nữ thấy Hóa Khoa, ngoại trừ hàm nghĩa chú trọng sinh hoạt tình dục, còn ngầm báo ý mất đi sự bình lặng thường có, vì vậy cũng tiềm phục ý tượng ngoại tình. Hóa Khoa vốn chủ về lí trí, lí tính, và tuân thủ quy củ, nhưng một khi xảy ra ngoại tình, thì tình cảm sẽ lừa gạt lí trí, trong tình huống này, lúc lí trí bị phá hoại, cũng là lúc Hóa Khoa mất đi hiệu lực; cho nên, một khi xảy ra ngoại tình thì rẩt dễ bị "phát hiện".</t>
   </si>
 </sst>
 </file>
@@ -5554,8 +5569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <dimension ref="A1:G1538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1113" workbookViewId="0">
-      <selection activeCell="C1113" sqref="C1113"/>
+    <sheetView tabSelected="1" topLeftCell="A1114" workbookViewId="0">
+      <selection activeCell="F1115" sqref="F1115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5563,7 +5578,7 @@
     <col min="1" max="2" width="71.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="53.140625" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" customWidth="1"/>
-    <col min="5" max="5" width="39.140625" customWidth="1"/>
+    <col min="5" max="5" width="77.140625" customWidth="1"/>
     <col min="6" max="6" width="51.5703125" customWidth="1"/>
     <col min="7" max="7" width="47.5703125" customWidth="1"/>
   </cols>
@@ -14502,12 +14517,27 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="1114" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="1114" spans="1:7" ht="345" x14ac:dyDescent="0.25">
       <c r="A1114" s="1" t="s">
         <v>1099</v>
       </c>
       <c r="B1114" s="1" t="s">
         <v>1575</v>
+      </c>
+      <c r="C1114" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D1114" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E1114" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F1114" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="G1114" s="1" t="s">
+        <v>1721</v>
       </c>
     </row>
     <row r="1115" spans="1:7" ht="90" x14ac:dyDescent="0.25">

--- a/LuanTuTuc.xlsx
+++ b/LuanTuTuc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3639BE-7011-48C6-932C-F834298E0AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2615B1C-40D1-49B1-B9AE-04C481C4EDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3092" uniqueCount="1722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3096" uniqueCount="1726">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -5203,6 +5203,18 @@
   </si>
   <si>
     <t>Cung tử nữ còn là cung chủ về hưởng lạc, là cung chủ về tình hình hưởng thụ sinh hoạt tình dục; Hóa Khoa ở cung tử nữ, là có hàm ý lãng mạn, về tinh thần mệnh tạo được hưởng thụ đầy đủ niềm hoan lạc, tức vợ chồng có sinh hoạt tình dục hòa hợp viên mãn, tình cảm giữa hai người cũng có thể duy trì lâu dài. Nhưng cung tử nữ thấy Hóa Khoa, ngoại trừ hàm nghĩa chú trọng sinh hoạt tình dục, còn ngầm báo ý mất đi sự bình lặng thường có, vì vậy cũng tiềm phục ý tượng ngoại tình. Hóa Khoa vốn chủ về lí trí, lí tính, và tuân thủ quy củ, nhưng một khi xảy ra ngoại tình, thì tình cảm sẽ lừa gạt lí trí, trong tình huống này, lúc lí trí bị phá hoại, cũng là lúc Hóa Khoa mất đi hiệu lực; cho nên, một khi xảy ra ngoại tình thì rẩt dễ bị "phát hiện".</t>
+  </si>
+  <si>
+    <t>Các trường hợp tử hóa ở cung tử nữ, bất luận là Hóa Lộc, Hóa Quyền, Hóa Khoa, hay Hóa Kị, đều chủ về xảy ra biến hóa, tức có hàm ý là, mệnh tạo có thể có con. Có điều, trong trường hợp Hóa Kị ở cung tứ nữ, mệnh tạo sẽ có con khá chậm, sinh con trai hay sinh con gái đều gặp khó khăn, mà thể chất của con cái cũng không được tốt. Ý tượng của Hóa Lộc là "kì vọng" và "đáp trả"; còn ý tượng của Hóa Kị là "thu vào", "quy thuộc và trông mong". Trường hợp Hóa Lộc hay Hóa Kị ở cung tử nữ đều có khuynh hướng nuông chiều con cái, nhưng "kì vọng" của Hóa Lộc thường thường là mong muốn con cái thành tựu về học vấn, học hành có thành tích tốt, vui vẻ, hạnh phúc ... mà không có tấm lí mong chò con cái báo đáp; còn tính chất của Hóa Kị là quá kì vọng và có áp lực, mong muốn con cái nỗ lực học hành, còn trông mong con cái cống hiến cho gia đình, nhưng thường thường con cái rất khó đạt yêu cầu của mệnh tạo, mà nhiều còn trở thành tai hạn.</t>
+  </si>
+  <si>
+    <t>Vì ảnh hưởng của Hóa Kị, cách mệnh tạo đối đãi với con cái, cho đến thái độ đáp trà của con cái, thường thường là trái với mong đợi. Cho nên, không chỉ mệnh tạo sẽ cảm thấy có sự ngăn cách với con cái, mà quan hệ giữa con cái với mệnh tạo cũng sẽ không được hòa mục, khá khổ sở. Vì Hóa Kị ở cung tử nữ, đối với mệnh tạo là Hóa Kị nhập "tha cung" và xung cung vị điền trạch của mệnh tạo, tức là vì con cái mà ảnh hưởng đến sức khỏe. Đây cũng là nói, trong quá trình mang thai sinh đẻ, mệnh tạo dễ gặp tình huống khó sinh hoặc sinh non, nhưng muốn biết rốt cuộc thế nào thì phải quan sát cung phụ mẫu (cung vị khí số của cung tử nữ). vì Hóa Kị xung kích cung điền trạch, là chủ về cả gia đình phải gánh vác những tai hại bất lợi do con cái gây ra, hoặc hành vi của con cái không hợp trào lưu, đồng thời tiền đồ phát triển của con cái sẽ thành trọng tâm của cả gia đình. Lúc này cần xem lại  thân con cái có vấn đề về sức khỏe, cũng sẽ khiến cho mệnh tạo và cả gia đình rất lo lắng.</t>
+  </si>
+  <si>
+    <t>Vì cung tử nữ còn tượng trưng cho cung vị chủ về hợp tác, trường hợp có Hóa Kị ở cung tử nữ, là mệnh tạo sẽ rất muốn đầu tư, hợp tác để kiếm tiền. Vì Hóa Kị ở "tha cung", nên lúc hợp tác làm ăn với người khác thường thường sẽ khiến mệnh tạo mất cả chì lẫn chài, không những vốn đầu tư lỗ mất, mà cuộc hợp tác làm ăn có thể giống như cái hố sâu, cần phải liên tục đổ của cải vào. Do đó trường hợp Hóa Kị ở cung tử nữ là có ý tượng không nên hợp tác làm ăn. Cung tử nữ cư ở cung vị khí số của cung nô bộc, trường hợp cung tử nữ thấy Hóa Kị, là chủ về trong số người giao du qua lại, có người trạng thái tâm lí không được lành mạnh, đồng thời cũng sẽ có người thiếu nhân cách, nhưng mệnh tạo cũng có thể có một số bạn bè có nhân cách đặc biệt. Vì ý tượng của Hóa Kị là "trông mong" và "thu vào", cho nên mệnh tạo kì vọng rất nhiều vào con cái, đồng thời cũng chủ về mệnh tạo quá chiều chuộng con cái. Cung tử nữ là "tha cung", thấy Hóa Kị là thấy xung hướng cung điền trạch, sẽ phá hoại cung điền trạch, tức phá hoại sự hòa hợp trong gia đình. Ngoài ra, cung điền trạch là đại biểu cho "kho tiền", thấy xung kích là "kho tiền" dễ phá; ý tượng là, tiêu xài lãng phí, đầu tư không thích đáng, làm tổn hao tài phú; còn có ý tượng khác là, con cái tiêu xài rất nhiều tiền (thường thường là chi xuất ngoài kế hoạch).</t>
+  </si>
+  <si>
+    <t>Cũng vì Hóa Kị ở cung tử nữ, xung kích cung điền trạch, thường thường mệnh tạo rất khó giữ bất động sản, nhất là nhà mua lần đầu thì càng khó sống lâu trong đó. Vì tuyến "tử điền" liên quan đến dục tình, trường hợp cung tử nữ thấy tứ hóa, đều dễ xuất hiện cơ hội ngoại tình, có điều dưới sức ảnh hưởng của Hóa Kị hay Hóa Quyền, tình huống ngoại tình thường sẽ rất ồn ào, hoặc không được vui vẻ, thậm chí thành chuyện đáng tiếc.</t>
   </si>
 </sst>
 </file>
@@ -5569,15 +5581,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <dimension ref="A1:G1538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1114" workbookViewId="0">
-      <selection activeCell="F1115" sqref="F1115"/>
+    <sheetView tabSelected="1" topLeftCell="C1115" workbookViewId="0">
+      <selection activeCell="F1118" sqref="F1118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="71.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="53.140625" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" customWidth="1"/>
     <col min="5" max="5" width="77.140625" customWidth="1"/>
     <col min="6" max="6" width="51.5703125" customWidth="1"/>
     <col min="7" max="7" width="47.5703125" customWidth="1"/>
@@ -14540,12 +14552,24 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="1115" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="1115" spans="1:7" ht="255" x14ac:dyDescent="0.25">
       <c r="A1115" s="1" t="s">
         <v>1100</v>
       </c>
       <c r="B1115" s="1" t="s">
         <v>1576</v>
+      </c>
+      <c r="C1115" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D1115" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E1115" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="F1115" s="1" t="s">
+        <v>1725</v>
       </c>
     </row>
     <row r="1116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
